--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_yoy_AR2_50_9_full.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_yoy_AR2_50_9_full.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E121"/>
+  <dimension ref="A1:E164"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,2041 +417,2772 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>34948</v>
+        <v>31047</v>
       </c>
       <c r="B2">
-        <v>1995</v>
+        <v>1984</v>
       </c>
       <c r="C2">
-        <v>2.622955649346648</v>
+        <v>2.681929770019686</v>
       </c>
       <c r="D2">
-        <v>1996</v>
+        <v>1985</v>
       </c>
       <c r="E2">
-        <v>2.915653518291639</v>
+        <v>2.73475129348093</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>35040</v>
+        <v>31137</v>
       </c>
       <c r="B3">
-        <v>1995</v>
+        <v>1985</v>
       </c>
       <c r="C3">
-        <v>2.310325699082871</v>
+        <v>3.342274548407542</v>
       </c>
       <c r="D3">
-        <v>1996</v>
+        <v>1986</v>
       </c>
       <c r="E3">
-        <v>2.658356052145039</v>
+        <v>2.148130019038574</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>35131</v>
+        <v>31228</v>
       </c>
       <c r="B4">
-        <v>1996</v>
+        <v>1985</v>
       </c>
       <c r="C4">
-        <v>1.87529243636666</v>
+        <v>1.777145513200118</v>
       </c>
       <c r="D4">
-        <v>1997</v>
+        <v>1986</v>
       </c>
       <c r="E4">
-        <v>2.745589533300552</v>
+        <v>1.897195788720762</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>35221</v>
+        <v>31320</v>
       </c>
       <c r="B5">
-        <v>1996</v>
+        <v>1985</v>
       </c>
       <c r="C5">
-        <v>0.7757377956089551</v>
+        <v>2.113747227894192</v>
       </c>
       <c r="D5">
-        <v>1997</v>
+        <v>1986</v>
       </c>
       <c r="E5">
-        <v>2.610245619887741</v>
+        <v>2.039716681346326</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>35313</v>
+        <v>31412</v>
       </c>
       <c r="B6">
-        <v>1996</v>
+        <v>1985</v>
       </c>
       <c r="C6">
-        <v>1.335102954533496</v>
+        <v>2.573947575822677</v>
       </c>
       <c r="D6">
-        <v>1997</v>
+        <v>1986</v>
       </c>
       <c r="E6">
-        <v>2.984773230892523</v>
+        <v>2.58358492564803</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>35403</v>
+        <v>31502</v>
       </c>
       <c r="B7">
-        <v>1996</v>
+        <v>1986</v>
       </c>
       <c r="C7">
-        <v>1.482055350913747</v>
+        <v>2.694090856026343</v>
       </c>
       <c r="D7">
-        <v>1997</v>
+        <v>1987</v>
       </c>
       <c r="E7">
-        <v>2.992107960012036</v>
+        <v>2.069264760691669</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>35493</v>
+        <v>31593</v>
       </c>
       <c r="B8">
-        <v>1997</v>
+        <v>1986</v>
       </c>
       <c r="C8">
-        <v>2.445312678728806</v>
+        <v>1.520629350269975</v>
       </c>
       <c r="D8">
-        <v>1998</v>
+        <v>1987</v>
       </c>
       <c r="E8">
-        <v>2.577929127177692</v>
+        <v>1.941216181406236</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>35586</v>
+        <v>31685</v>
       </c>
       <c r="B9">
-        <v>1997</v>
+        <v>1986</v>
       </c>
       <c r="C9">
-        <v>2.220119463330095</v>
+        <v>2.010410230048287</v>
       </c>
       <c r="D9">
-        <v>1998</v>
+        <v>1987</v>
       </c>
       <c r="E9">
-        <v>2.64319810490059</v>
+        <v>2.190379109521401</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>35683</v>
+        <v>31777</v>
       </c>
       <c r="B10">
-        <v>1997</v>
+        <v>1986</v>
       </c>
       <c r="C10">
-        <v>2.342165263381912</v>
+        <v>2.161034240664228</v>
       </c>
       <c r="D10">
-        <v>1998</v>
+        <v>1987</v>
       </c>
       <c r="E10">
-        <v>2.716886837551424</v>
+        <v>2.388724974429235</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>35768</v>
+        <v>31867</v>
       </c>
       <c r="B11">
-        <v>1997</v>
+        <v>1987</v>
       </c>
       <c r="C11">
-        <v>2.439884175301343</v>
+        <v>2.818242306702046</v>
       </c>
       <c r="D11">
-        <v>1998</v>
+        <v>1988</v>
       </c>
       <c r="E11">
-        <v>2.773863658824549</v>
+        <v>2.289338730073864</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>35881</v>
+        <v>31958</v>
       </c>
       <c r="B12">
-        <v>1998</v>
+        <v>1987</v>
       </c>
       <c r="C12">
-        <v>2.381150117272068</v>
+        <v>0.006150708382479664</v>
       </c>
       <c r="D12">
-        <v>1999</v>
+        <v>1988</v>
       </c>
       <c r="E12">
-        <v>2.528385444177372</v>
+        <v>2.273434064658209</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>35950</v>
+        <v>32050</v>
       </c>
       <c r="B13">
-        <v>1998</v>
+        <v>1987</v>
       </c>
       <c r="C13">
-        <v>2.772784171603737</v>
+        <v>0.8355527487941217</v>
       </c>
       <c r="D13">
-        <v>1999</v>
+        <v>1988</v>
       </c>
       <c r="E13">
-        <v>2.689796511187437</v>
+        <v>2.606637274983936</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>36047</v>
+        <v>32142</v>
       </c>
       <c r="B14">
-        <v>1998</v>
+        <v>1987</v>
       </c>
       <c r="C14">
-        <v>2.84227685047822</v>
+        <v>0.9697275934645422</v>
       </c>
       <c r="D14">
-        <v>1999</v>
+        <v>1988</v>
       </c>
       <c r="E14">
-        <v>2.469054913123125</v>
+        <v>2.698368179641242</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>36132</v>
+        <v>32233</v>
       </c>
       <c r="B15">
-        <v>1998</v>
+        <v>1988</v>
       </c>
       <c r="C15">
-        <v>2.833473913903406</v>
+        <v>3.317879509925148</v>
       </c>
       <c r="D15">
-        <v>1999</v>
+        <v>1989</v>
       </c>
       <c r="E15">
-        <v>2.482507310682891</v>
+        <v>2.320290242387757</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>36223</v>
+        <v>32324</v>
       </c>
       <c r="B16">
-        <v>1999</v>
+        <v>1988</v>
       </c>
       <c r="C16">
-        <v>1.655287196880928</v>
+        <v>2.284628917872622</v>
       </c>
       <c r="D16">
-        <v>2000</v>
+        <v>1989</v>
       </c>
       <c r="E16">
-        <v>2.390562571520949</v>
+        <v>2.270390965314983</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>36319</v>
+        <v>32416</v>
       </c>
       <c r="B17">
-        <v>1999</v>
+        <v>1988</v>
       </c>
       <c r="C17">
-        <v>1.481562820846571</v>
+        <v>2.814947814220914</v>
       </c>
       <c r="D17">
-        <v>2000</v>
+        <v>1989</v>
       </c>
       <c r="E17">
-        <v>2.564763317404561</v>
+        <v>2.359718272421008</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>36412</v>
+        <v>32508</v>
       </c>
       <c r="B18">
-        <v>1999</v>
+        <v>1988</v>
       </c>
       <c r="C18">
-        <v>0.8861546371220719</v>
+        <v>3.194969449935003</v>
       </c>
       <c r="D18">
-        <v>2000</v>
+        <v>1989</v>
       </c>
       <c r="E18">
-        <v>2.142429114246314</v>
+        <v>2.654510774528207</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>36501</v>
+        <v>32598</v>
       </c>
       <c r="B19">
-        <v>1999</v>
+        <v>1989</v>
       </c>
       <c r="C19">
-        <v>1.221733233617339</v>
+        <v>3.078003875303725</v>
       </c>
       <c r="D19">
-        <v>2000</v>
+        <v>1990</v>
       </c>
       <c r="E19">
-        <v>2.282946612411263</v>
+        <v>2.234699437753784</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>36587</v>
+        <v>32689</v>
       </c>
       <c r="B20">
-        <v>2000</v>
+        <v>1989</v>
       </c>
       <c r="C20">
-        <v>2.448320502468238</v>
+        <v>3.661580277249166</v>
       </c>
       <c r="D20">
-        <v>2001</v>
+        <v>1990</v>
       </c>
       <c r="E20">
-        <v>2.309224227556794</v>
+        <v>2.193258610001214</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>36676</v>
+        <v>32781</v>
       </c>
       <c r="B21">
-        <v>2000</v>
+        <v>1989</v>
       </c>
       <c r="C21">
-        <v>2.564024492763806</v>
+        <v>3.6938275965265</v>
       </c>
       <c r="D21">
-        <v>2001</v>
+        <v>1990</v>
       </c>
       <c r="E21">
-        <v>2.473062944816595</v>
+        <v>2.191051164767877</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>36767</v>
+        <v>32873</v>
       </c>
       <c r="B22">
-        <v>2000</v>
+        <v>1989</v>
       </c>
       <c r="C22">
-        <v>3.153099622684863</v>
+        <v>3.85009945173751</v>
       </c>
       <c r="D22">
-        <v>2001</v>
+        <v>1990</v>
       </c>
       <c r="E22">
-        <v>2.621515653474216</v>
+        <v>2.342799083309055</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>36858</v>
+        <v>32963</v>
       </c>
       <c r="B23">
-        <v>2000</v>
+        <v>1990</v>
       </c>
       <c r="C23">
-        <v>3.212706544592092</v>
+        <v>2.666162325285693</v>
       </c>
       <c r="D23">
-        <v>2001</v>
+        <v>1991</v>
       </c>
       <c r="E23">
-        <v>2.498927718860466</v>
+        <v>2.26485329164865</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>36951</v>
+        <v>33054</v>
       </c>
       <c r="B24">
-        <v>2001</v>
+        <v>1990</v>
       </c>
       <c r="C24">
-        <v>1.915232257141031</v>
+        <v>4.130619852766437</v>
       </c>
       <c r="D24">
-        <v>2002</v>
+        <v>1991</v>
       </c>
       <c r="E24">
-        <v>2.237269708962941</v>
+        <v>2.272904440822465</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>37034</v>
+        <v>33146</v>
       </c>
       <c r="B25">
-        <v>2001</v>
+        <v>1990</v>
       </c>
       <c r="C25">
-        <v>1.759737107832926</v>
+        <v>4.360305978402312</v>
       </c>
       <c r="D25">
-        <v>2002</v>
+        <v>1991</v>
       </c>
       <c r="E25">
-        <v>2.1823787252363</v>
+        <v>2.354203638264551</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>37126</v>
+        <v>33238</v>
       </c>
       <c r="B26">
-        <v>2001</v>
+        <v>1990</v>
       </c>
       <c r="C26">
-        <v>1.200212790305688</v>
+        <v>5.073362306219398</v>
       </c>
       <c r="D26">
-        <v>2002</v>
+        <v>1991</v>
       </c>
       <c r="E26">
-        <v>1.945361731599915</v>
+        <v>2.977303796668029</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>37222</v>
+        <v>33328</v>
       </c>
       <c r="B27">
-        <v>2001</v>
+        <v>1991</v>
       </c>
       <c r="C27">
-        <v>0.8718408608820116</v>
+        <v>3.912848990577067</v>
       </c>
       <c r="D27">
-        <v>2002</v>
+        <v>1992</v>
       </c>
       <c r="E27">
-        <v>1.451589658605279</v>
+        <v>2.519901525122537</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>37314</v>
+        <v>33419</v>
       </c>
       <c r="B28">
-        <v>2002</v>
+        <v>1991</v>
       </c>
       <c r="C28">
-        <v>0.7448884326621386</v>
+        <v>6.364491101711689</v>
       </c>
       <c r="D28">
-        <v>2003</v>
+        <v>1992</v>
       </c>
       <c r="E28">
-        <v>1.887617486540871</v>
+        <v>2.793798186209284</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>37399</v>
+        <v>33511</v>
       </c>
       <c r="B29">
-        <v>2002</v>
+        <v>1991</v>
       </c>
       <c r="C29">
-        <v>0.5027243209395182</v>
+        <v>6.813462808712534</v>
       </c>
       <c r="D29">
-        <v>2003</v>
+        <v>1992</v>
       </c>
       <c r="E29">
-        <v>1.723557921614716</v>
+        <v>2.829294614456113</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>37490</v>
+        <v>33603</v>
       </c>
       <c r="B30">
-        <v>2002</v>
+        <v>1991</v>
       </c>
       <c r="C30">
-        <v>0.4808578657098828</v>
+        <v>6.091605135014255</v>
       </c>
       <c r="D30">
-        <v>2003</v>
+        <v>1992</v>
       </c>
       <c r="E30">
-        <v>1.723271795704595</v>
+        <v>2.066726874661873</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>37581</v>
+        <v>33694</v>
       </c>
       <c r="B31">
-        <v>2002</v>
+        <v>1992</v>
       </c>
       <c r="C31">
-        <v>0.3027105478702108</v>
+        <v>2.139879630803643</v>
       </c>
       <c r="D31">
-        <v>2003</v>
+        <v>1993</v>
       </c>
       <c r="E31">
-        <v>1.495147488490889</v>
+        <v>2.541176785496058</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>37678</v>
+        <v>33785</v>
       </c>
       <c r="B32">
-        <v>2003</v>
+        <v>1992</v>
       </c>
       <c r="C32">
-        <v>1.101570631429216</v>
+        <v>2.932796654414149</v>
       </c>
       <c r="D32">
-        <v>2004</v>
+        <v>1993</v>
       </c>
       <c r="E32">
-        <v>1.485795576382354</v>
+        <v>2.584450468619459</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>37756</v>
+        <v>33877</v>
       </c>
       <c r="B33">
-        <v>2003</v>
+        <v>1992</v>
       </c>
       <c r="C33">
-        <v>0.5465690596114792</v>
+        <v>2.494110716709286</v>
       </c>
       <c r="D33">
-        <v>2004</v>
+        <v>1993</v>
       </c>
       <c r="E33">
-        <v>1.336255717893819</v>
+        <v>2.492787484240577</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>37847</v>
+        <v>33969</v>
       </c>
       <c r="B34">
-        <v>2003</v>
+        <v>1992</v>
       </c>
       <c r="C34">
-        <v>0.1226244738887772</v>
+        <v>2.064701871240571</v>
       </c>
       <c r="D34">
-        <v>2004</v>
+        <v>1993</v>
       </c>
       <c r="E34">
-        <v>1.273847785608018</v>
+        <v>2.112386427028046</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>37938</v>
+        <v>34059</v>
       </c>
       <c r="B35">
-        <v>2003</v>
+        <v>1993</v>
       </c>
       <c r="C35">
-        <v>-0.06338401458176879</v>
+        <v>1.549317903069802</v>
       </c>
       <c r="D35">
-        <v>2004</v>
+        <v>1994</v>
       </c>
       <c r="E35">
-        <v>1.186949455574493</v>
+        <v>2.659262185946587</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>38029</v>
+        <v>34150</v>
       </c>
       <c r="B36">
-        <v>2004</v>
+        <v>1993</v>
       </c>
       <c r="C36">
-        <v>0.995052798292595</v>
+        <v>-1.06363680093724</v>
       </c>
       <c r="D36">
-        <v>2005</v>
+        <v>1994</v>
       </c>
       <c r="E36">
-        <v>1.21940334738424</v>
+        <v>2.368493192930488</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>38120</v>
+        <v>34242</v>
       </c>
       <c r="B37">
-        <v>2004</v>
+        <v>1993</v>
       </c>
       <c r="C37">
-        <v>1.097102853016874</v>
+        <v>-1.124761626679238</v>
       </c>
       <c r="D37">
-        <v>2005</v>
+        <v>1994</v>
       </c>
       <c r="E37">
-        <v>1.078165363345507</v>
+        <v>2.402262657257404</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>38211</v>
+        <v>34334</v>
       </c>
       <c r="B38">
-        <v>2004</v>
+        <v>1993</v>
       </c>
       <c r="C38">
-        <v>1.34901080838441</v>
+        <v>-1.000531514043412</v>
       </c>
       <c r="D38">
-        <v>2005</v>
+        <v>1994</v>
       </c>
       <c r="E38">
-        <v>1.284205480024792</v>
+        <v>2.575999544954621</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>38302</v>
+        <v>34424</v>
       </c>
       <c r="B39">
-        <v>2004</v>
+        <v>1994</v>
       </c>
       <c r="C39">
-        <v>1.191718234579842</v>
+        <v>1.991768926775084</v>
       </c>
       <c r="D39">
-        <v>2005</v>
+        <v>1995</v>
       </c>
       <c r="E39">
-        <v>1.166653268907458</v>
+        <v>2.508787946950286</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>38398</v>
+        <v>34515</v>
       </c>
       <c r="B40">
-        <v>2005</v>
+        <v>1994</v>
       </c>
       <c r="C40">
-        <v>0.5395053573269193</v>
+        <v>2.479893153134016</v>
       </c>
       <c r="D40">
-        <v>2006</v>
+        <v>1995</v>
       </c>
       <c r="E40">
-        <v>1.159652672534639</v>
+        <v>2.567096653116252</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>38484</v>
+        <v>34607</v>
       </c>
       <c r="B41">
-        <v>2005</v>
+        <v>1994</v>
       </c>
       <c r="C41">
-        <v>1.572397351130328</v>
+        <v>2.993503501929951</v>
       </c>
       <c r="D41">
-        <v>2006</v>
+        <v>1995</v>
       </c>
       <c r="E41">
-        <v>1.582707465349764</v>
+        <v>2.851639473444134</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>38575</v>
+        <v>34699</v>
       </c>
       <c r="B42">
-        <v>2005</v>
+        <v>1994</v>
       </c>
       <c r="C42">
-        <v>0.9830139229099144</v>
+        <v>2.998503002360153</v>
       </c>
       <c r="D42">
-        <v>2006</v>
+        <v>1995</v>
       </c>
       <c r="E42">
-        <v>1.422422035968962</v>
+        <v>2.954478109176528</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>38671</v>
+        <v>34789</v>
       </c>
       <c r="B43">
-        <v>2005</v>
+        <v>1995</v>
       </c>
       <c r="C43">
-        <v>1.10662279082161</v>
+        <v>2.923150766105942</v>
       </c>
       <c r="D43">
-        <v>2006</v>
+        <v>1996</v>
       </c>
       <c r="E43">
-        <v>1.607604296724396</v>
+        <v>2.899861342051335</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>38762</v>
+        <v>34880</v>
       </c>
       <c r="B44">
-        <v>2006</v>
+        <v>1995</v>
       </c>
       <c r="C44">
-        <v>1.321777562372928</v>
+        <v>2.432437183852798</v>
       </c>
       <c r="D44">
-        <v>2007</v>
+        <v>1996</v>
       </c>
       <c r="E44">
-        <v>1.492576005069335</v>
+        <v>2.872765583543457</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>38848</v>
+        <v>34948</v>
       </c>
       <c r="B45">
-        <v>2006</v>
+        <v>1995</v>
       </c>
       <c r="C45">
-        <v>1.322125352849413</v>
+        <v>2.622955649346648</v>
       </c>
       <c r="D45">
-        <v>2007</v>
+        <v>1996</v>
       </c>
       <c r="E45">
-        <v>1.429193111889671</v>
+        <v>2.915653518291639</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>38943</v>
+        <v>35040</v>
       </c>
       <c r="B46">
-        <v>2006</v>
+        <v>1995</v>
       </c>
       <c r="C46">
-        <v>2.206144542976007</v>
+        <v>2.310325699082871</v>
       </c>
       <c r="D46">
-        <v>2007</v>
+        <v>1996</v>
       </c>
       <c r="E46">
-        <v>1.674846040945321</v>
+        <v>2.658356052145039</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>39035</v>
+        <v>35131</v>
       </c>
       <c r="B47">
-        <v>2006</v>
+        <v>1996</v>
       </c>
       <c r="C47">
-        <v>2.581733062021807</v>
+        <v>1.87529243636666</v>
       </c>
       <c r="D47">
-        <v>2007</v>
+        <v>1997</v>
       </c>
       <c r="E47">
-        <v>1.863208987134324</v>
+        <v>2.745589533300552</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>39126</v>
+        <v>35221</v>
       </c>
       <c r="B48">
-        <v>2007</v>
+        <v>1996</v>
       </c>
       <c r="C48">
-        <v>2.416268882941885</v>
+        <v>0.7757377956089551</v>
       </c>
       <c r="D48">
-        <v>2008</v>
+        <v>1997</v>
       </c>
       <c r="E48">
-        <v>1.54018541130112</v>
+        <v>2.610245619887741</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>39217</v>
+        <v>35313</v>
       </c>
       <c r="B49">
-        <v>2007</v>
+        <v>1996</v>
       </c>
       <c r="C49">
-        <v>2.644331987985127</v>
+        <v>1.335102954533496</v>
       </c>
       <c r="D49">
-        <v>2008</v>
+        <v>1997</v>
       </c>
       <c r="E49">
-        <v>1.618758147029653</v>
+        <v>2.984773230892523</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>39308</v>
+        <v>35403</v>
       </c>
       <c r="B50">
-        <v>2007</v>
+        <v>1996</v>
       </c>
       <c r="C50">
-        <v>2.463900898486049</v>
+        <v>1.482055350913747</v>
       </c>
       <c r="D50">
-        <v>2008</v>
+        <v>1997</v>
       </c>
       <c r="E50">
-        <v>1.439039865002134</v>
+        <v>2.992107960012036</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>39400</v>
+        <v>35493</v>
       </c>
       <c r="B51">
-        <v>2007</v>
+        <v>1997</v>
       </c>
       <c r="C51">
-        <v>2.635105211127575</v>
+        <v>2.445312678728806</v>
       </c>
       <c r="D51">
-        <v>2008</v>
+        <v>1998</v>
       </c>
       <c r="E51">
-        <v>1.722015618408701</v>
+        <v>2.577929127177692</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>39492</v>
+        <v>35586</v>
       </c>
       <c r="B52">
-        <v>2008</v>
+        <v>1997</v>
       </c>
       <c r="C52">
-        <v>1.585034188191714</v>
+        <v>2.220119463330095</v>
       </c>
       <c r="D52">
-        <v>2009</v>
+        <v>1998</v>
       </c>
       <c r="E52">
-        <v>1.585674960490113</v>
+        <v>2.64319810490059</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2">
-        <v>39583</v>
+        <v>35683</v>
       </c>
       <c r="B53">
-        <v>2008</v>
+        <v>1997</v>
       </c>
       <c r="C53">
-        <v>2.914742198403797</v>
+        <v>2.342165263381912</v>
       </c>
       <c r="D53">
-        <v>2009</v>
+        <v>1998</v>
       </c>
       <c r="E53">
-        <v>1.949882598369124</v>
+        <v>2.716886837551424</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2">
-        <v>39674</v>
+        <v>35768</v>
       </c>
       <c r="B54">
-        <v>2008</v>
+        <v>1997</v>
       </c>
       <c r="C54">
-        <v>1.849664159209219</v>
+        <v>2.439884175301343</v>
       </c>
       <c r="D54">
-        <v>2009</v>
+        <v>1998</v>
       </c>
       <c r="E54">
-        <v>1.258622825501221</v>
+        <v>2.773863658824549</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="2">
-        <v>39765</v>
+        <v>35881</v>
       </c>
       <c r="B55">
-        <v>2008</v>
+        <v>1998</v>
       </c>
       <c r="C55">
-        <v>1.485199759936107</v>
+        <v>2.381150117272068</v>
       </c>
       <c r="D55">
-        <v>2009</v>
+        <v>1999</v>
       </c>
       <c r="E55">
-        <v>0.443605991657714</v>
+        <v>2.528385444177372</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2">
-        <v>39857</v>
+        <v>35950</v>
       </c>
       <c r="B56">
-        <v>2009</v>
+        <v>1998</v>
       </c>
       <c r="C56">
-        <v>-2.925220177089027</v>
+        <v>2.772784171603737</v>
       </c>
       <c r="D56">
-        <v>2010</v>
+        <v>1999</v>
       </c>
       <c r="E56">
-        <v>0.1087431448965059</v>
+        <v>2.689796511187437</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2">
-        <v>39948</v>
+        <v>36047</v>
       </c>
       <c r="B57">
-        <v>2009</v>
+        <v>1998</v>
       </c>
       <c r="C57">
-        <v>-10.38912473755519</v>
+        <v>2.84227685047822</v>
       </c>
       <c r="D57">
-        <v>2010</v>
+        <v>1999</v>
       </c>
       <c r="E57">
-        <v>-13.02588630704915</v>
+        <v>2.469054913123125</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2">
-        <v>40038</v>
+        <v>36132</v>
       </c>
       <c r="B58">
-        <v>2009</v>
+        <v>1998</v>
       </c>
       <c r="C58">
-        <v>-5.493279456187173</v>
+        <v>2.833473913903406</v>
       </c>
       <c r="D58">
-        <v>2010</v>
+        <v>1999</v>
       </c>
       <c r="E58">
-        <v>0.3099897690161502</v>
+        <v>2.482507310682891</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2">
-        <v>40130</v>
+        <v>36223</v>
       </c>
       <c r="B59">
-        <v>2009</v>
+        <v>1999</v>
       </c>
       <c r="C59">
-        <v>-4.838386464989386</v>
+        <v>1.655287196880928</v>
       </c>
       <c r="D59">
-        <v>2010</v>
+        <v>2000</v>
       </c>
       <c r="E59">
-        <v>1.556350517939564</v>
+        <v>2.390562571520949</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2">
-        <v>40221</v>
+        <v>36319</v>
       </c>
       <c r="B60">
-        <v>2010</v>
+        <v>1999</v>
       </c>
       <c r="C60">
-        <v>0.9288791585305711</v>
+        <v>1.481562820846571</v>
       </c>
       <c r="D60">
-        <v>2011</v>
+        <v>2000</v>
       </c>
       <c r="E60">
-        <v>0.8822063211653797</v>
+        <v>2.564763317404561</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2">
-        <v>40310</v>
+        <v>36412</v>
       </c>
       <c r="B61">
-        <v>2010</v>
+        <v>1999</v>
       </c>
       <c r="C61">
-        <v>1.071809041675276</v>
+        <v>0.8861546371220719</v>
       </c>
       <c r="D61">
-        <v>2011</v>
+        <v>2000</v>
       </c>
       <c r="E61">
-        <v>0.8342879232527967</v>
+        <v>2.142429114246314</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2">
-        <v>40403</v>
+        <v>36501</v>
       </c>
       <c r="B62">
-        <v>2010</v>
+        <v>1999</v>
       </c>
       <c r="C62">
-        <v>3.577564492651675</v>
+        <v>1.221733233617339</v>
       </c>
       <c r="D62">
-        <v>2011</v>
+        <v>2000</v>
       </c>
       <c r="E62">
-        <v>2.731583858664188</v>
+        <v>2.282946612411263</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2">
-        <v>40494</v>
+        <v>36587</v>
       </c>
       <c r="B63">
-        <v>2010</v>
+        <v>2000</v>
       </c>
       <c r="C63">
-        <v>3.522877896197807</v>
+        <v>2.448320502468238</v>
       </c>
       <c r="D63">
-        <v>2011</v>
+        <v>2001</v>
       </c>
       <c r="E63">
-        <v>2.252953350090348</v>
+        <v>2.309224227556794</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2">
-        <v>40589</v>
+        <v>36676</v>
       </c>
       <c r="B64">
-        <v>2011</v>
+        <v>2000</v>
       </c>
       <c r="C64">
-        <v>2.021953894754303</v>
+        <v>2.564024492763806</v>
       </c>
       <c r="D64">
-        <v>2012</v>
+        <v>2001</v>
       </c>
       <c r="E64">
-        <v>1.306806877555622</v>
+        <v>2.473062944816595</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2">
-        <v>40676</v>
+        <v>36767</v>
       </c>
       <c r="B65">
-        <v>2011</v>
+        <v>2000</v>
       </c>
       <c r="C65">
-        <v>3.720096369677184</v>
+        <v>3.153099622684863</v>
       </c>
       <c r="D65">
-        <v>2012</v>
+        <v>2001</v>
       </c>
       <c r="E65">
-        <v>1.686787594525496</v>
+        <v>2.621515653474216</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2">
-        <v>40771</v>
+        <v>36858</v>
       </c>
       <c r="B66">
-        <v>2011</v>
+        <v>2000</v>
       </c>
       <c r="C66">
-        <v>2.851982935378228</v>
+        <v>3.212706544592092</v>
       </c>
       <c r="D66">
-        <v>2012</v>
+        <v>2001</v>
       </c>
       <c r="E66">
-        <v>1.136030550102829</v>
+        <v>2.498927718860466</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2">
-        <v>40862</v>
+        <v>36951</v>
       </c>
       <c r="B67">
-        <v>2011</v>
+        <v>2001</v>
       </c>
       <c r="C67">
-        <v>3.172593145981373</v>
+        <v>1.915232257141031</v>
       </c>
       <c r="D67">
-        <v>2012</v>
+        <v>2002</v>
       </c>
       <c r="E67">
-        <v>1.460171959067247</v>
+        <v>2.237269708962941</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2">
-        <v>40954</v>
+        <v>37034</v>
       </c>
       <c r="B68">
-        <v>2012</v>
+        <v>2001</v>
       </c>
       <c r="C68">
-        <v>0.613364121638349</v>
+        <v>1.759737107832926</v>
       </c>
       <c r="D68">
-        <v>2013</v>
+        <v>2002</v>
       </c>
       <c r="E68">
-        <v>1.081133053453542</v>
+        <v>2.1823787252363</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="2">
-        <v>41044</v>
+        <v>37126</v>
       </c>
       <c r="B69">
-        <v>2012</v>
+        <v>2001</v>
       </c>
       <c r="C69">
-        <v>1.276650241283095</v>
+        <v>1.200212790305688</v>
       </c>
       <c r="D69">
-        <v>2013</v>
+        <v>2002</v>
       </c>
       <c r="E69">
-        <v>1.19633550657503</v>
+        <v>1.945361731599915</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2">
-        <v>41135</v>
+        <v>37222</v>
       </c>
       <c r="B70">
-        <v>2012</v>
+        <v>2001</v>
       </c>
       <c r="C70">
-        <v>1.086563863520862</v>
+        <v>0.8718408608820116</v>
       </c>
       <c r="D70">
-        <v>2013</v>
+        <v>2002</v>
       </c>
       <c r="E70">
-        <v>1.06457164149647</v>
+        <v>1.451589658605279</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="2">
-        <v>41228</v>
+        <v>37314</v>
       </c>
       <c r="B71">
-        <v>2012</v>
+        <v>2002</v>
       </c>
       <c r="C71">
-        <v>1.075749333634834</v>
+        <v>0.7448884326621386</v>
       </c>
       <c r="D71">
-        <v>2013</v>
+        <v>2003</v>
       </c>
       <c r="E71">
-        <v>1.106002658655192</v>
+        <v>1.887617486540871</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="2">
-        <v>41319</v>
+        <v>37399</v>
       </c>
       <c r="B72">
-        <v>2013</v>
+        <v>2002</v>
       </c>
       <c r="C72">
-        <v>-0.1408840671955125</v>
+        <v>0.5027243209395182</v>
       </c>
       <c r="D72">
-        <v>2014</v>
+        <v>2003</v>
       </c>
       <c r="E72">
-        <v>0.9790721284826276</v>
+        <v>1.723557921614716</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="2">
-        <v>41409</v>
+        <v>37490</v>
       </c>
       <c r="B73">
-        <v>2013</v>
+        <v>2002</v>
       </c>
       <c r="C73">
-        <v>-0.03137857138646449</v>
+        <v>0.4808578657098828</v>
       </c>
       <c r="D73">
-        <v>2014</v>
+        <v>2003</v>
       </c>
       <c r="E73">
-        <v>0.8494291553396094</v>
+        <v>1.723271795704595</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="2">
-        <v>41500</v>
+        <v>37581</v>
       </c>
       <c r="B74">
-        <v>2013</v>
+        <v>2002</v>
       </c>
       <c r="C74">
-        <v>0.6094282583182231</v>
+        <v>0.3027105478702108</v>
       </c>
       <c r="D74">
-        <v>2014</v>
+        <v>2003</v>
       </c>
       <c r="E74">
-        <v>1.440500538214629</v>
+        <v>1.495147488490889</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="2">
-        <v>41592</v>
+        <v>37678</v>
       </c>
       <c r="B75">
-        <v>2013</v>
+        <v>2003</v>
       </c>
       <c r="C75">
-        <v>0.5135943516859198</v>
+        <v>1.101570631429216</v>
       </c>
       <c r="D75">
-        <v>2014</v>
+        <v>2004</v>
       </c>
       <c r="E75">
-        <v>1.304915753449687</v>
+        <v>1.485795576382354</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="2">
-        <v>41684</v>
+        <v>37756</v>
       </c>
       <c r="B76">
-        <v>2014</v>
+        <v>2003</v>
       </c>
       <c r="C76">
-        <v>1.408749482567595</v>
+        <v>0.5465690596114792</v>
       </c>
       <c r="D76">
-        <v>2015</v>
+        <v>2004</v>
       </c>
       <c r="E76">
-        <v>1.146596633558361</v>
+        <v>1.336255717893819</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="2">
-        <v>41774</v>
+        <v>37847</v>
       </c>
       <c r="B77">
-        <v>2014</v>
+        <v>2003</v>
       </c>
       <c r="C77">
-        <v>2.183348446776856</v>
+        <v>0.1226244738887772</v>
       </c>
       <c r="D77">
-        <v>2015</v>
+        <v>2004</v>
       </c>
       <c r="E77">
-        <v>1.476241482808471</v>
+        <v>1.273847785608018</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="2">
-        <v>41865</v>
+        <v>37938</v>
       </c>
       <c r="B78">
-        <v>2014</v>
+        <v>2003</v>
       </c>
       <c r="C78">
-        <v>1.308305381840369</v>
+        <v>-0.06338401458176879</v>
       </c>
       <c r="D78">
-        <v>2015</v>
+        <v>2004</v>
       </c>
       <c r="E78">
-        <v>0.726330085526028</v>
+        <v>1.186949455574493</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="2">
-        <v>41957</v>
+        <v>38029</v>
       </c>
       <c r="B79">
-        <v>2014</v>
+        <v>2004</v>
       </c>
       <c r="C79">
-        <v>1.463603839062211</v>
+        <v>0.995052798292595</v>
       </c>
       <c r="D79">
-        <v>2015</v>
+        <v>2005</v>
       </c>
       <c r="E79">
-        <v>0.7345358670387547</v>
+        <v>1.21940334738424</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="2">
-        <v>42048</v>
+        <v>38120</v>
       </c>
       <c r="B80">
-        <v>2015</v>
+        <v>2004</v>
       </c>
       <c r="C80">
-        <v>1.555506802213324</v>
+        <v>1.097102853016874</v>
       </c>
       <c r="D80">
-        <v>2016</v>
+        <v>2005</v>
       </c>
       <c r="E80">
-        <v>1.247251478420663</v>
+        <v>1.078165363345507</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="2">
-        <v>42137</v>
+        <v>38211</v>
       </c>
       <c r="B81">
-        <v>2015</v>
+        <v>2004</v>
       </c>
       <c r="C81">
-        <v>1.291204709804039</v>
+        <v>1.34901080838441</v>
       </c>
       <c r="D81">
-        <v>2016</v>
+        <v>2005</v>
       </c>
       <c r="E81">
-        <v>1.334784545494694</v>
+        <v>1.284205480024792</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="2">
-        <v>42230</v>
+        <v>38302</v>
       </c>
       <c r="B82">
-        <v>2015</v>
+        <v>2004</v>
       </c>
       <c r="C82">
-        <v>1.503879794234519</v>
+        <v>1.191718234579842</v>
       </c>
       <c r="D82">
-        <v>2016</v>
+        <v>2005</v>
       </c>
       <c r="E82">
-        <v>1.427154289074717</v>
+        <v>1.166653268907458</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="2">
-        <v>42321</v>
+        <v>38398</v>
       </c>
       <c r="B83">
-        <v>2015</v>
+        <v>2005</v>
       </c>
       <c r="C83">
-        <v>1.460561192715071</v>
+        <v>0.5395053573269193</v>
       </c>
       <c r="D83">
-        <v>2016</v>
+        <v>2006</v>
       </c>
       <c r="E83">
-        <v>1.316306168565684</v>
+        <v>1.159652672534639</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="2">
-        <v>42412</v>
+        <v>38484</v>
       </c>
       <c r="B84">
-        <v>2016</v>
+        <v>2005</v>
       </c>
       <c r="C84">
-        <v>1.211140135558786</v>
+        <v>1.572397351130328</v>
       </c>
       <c r="D84">
-        <v>2017</v>
+        <v>2006</v>
       </c>
       <c r="E84">
-        <v>1.281269266985707</v>
+        <v>1.582707465349764</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="2">
-        <v>42503</v>
+        <v>38575</v>
       </c>
       <c r="B85">
-        <v>2016</v>
+        <v>2005</v>
       </c>
       <c r="C85">
-        <v>1.789277221144991</v>
+        <v>0.9830139229099144</v>
       </c>
       <c r="D85">
-        <v>2017</v>
+        <v>2006</v>
       </c>
       <c r="E85">
-        <v>1.517762585655458</v>
+        <v>1.422422035968962</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="2">
-        <v>42594</v>
+        <v>38671</v>
       </c>
       <c r="B86">
-        <v>2016</v>
+        <v>2005</v>
       </c>
       <c r="C86">
-        <v>1.831409032854858</v>
+        <v>1.10662279082161</v>
       </c>
       <c r="D86">
-        <v>2017</v>
+        <v>2006</v>
       </c>
       <c r="E86">
-        <v>1.455762792597137</v>
+        <v>1.607604296724396</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="2">
-        <v>42689</v>
+        <v>38762</v>
       </c>
       <c r="B87">
-        <v>2016</v>
+        <v>2006</v>
       </c>
       <c r="C87">
-        <v>1.71486702353103</v>
+        <v>1.321777562372928</v>
       </c>
       <c r="D87">
-        <v>2017</v>
+        <v>2007</v>
       </c>
       <c r="E87">
-        <v>1.271337706785514</v>
+        <v>1.492576005069335</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="2">
-        <v>42780</v>
+        <v>38848</v>
       </c>
       <c r="B88">
-        <v>2017</v>
+        <v>2006</v>
       </c>
       <c r="C88">
-        <v>1.469790059051301</v>
+        <v>1.322125352849413</v>
       </c>
       <c r="D88">
-        <v>2018</v>
+        <v>2007</v>
       </c>
       <c r="E88">
-        <v>1.488538737086698</v>
+        <v>1.429193111889671</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="2">
-        <v>42867</v>
+        <v>38943</v>
       </c>
       <c r="B89">
-        <v>2017</v>
+        <v>2006</v>
       </c>
       <c r="C89">
-        <v>1.816297695264346</v>
+        <v>2.206144542976007</v>
       </c>
       <c r="D89">
-        <v>2018</v>
+        <v>2007</v>
       </c>
       <c r="E89">
-        <v>1.651160881705249</v>
+        <v>1.674846040945321</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="2">
-        <v>42962</v>
+        <v>39035</v>
       </c>
       <c r="B90">
-        <v>2017</v>
+        <v>2006</v>
       </c>
       <c r="C90">
-        <v>2.141958087655205</v>
+        <v>2.581733062021807</v>
       </c>
       <c r="D90">
-        <v>2018</v>
+        <v>2007</v>
       </c>
       <c r="E90">
-        <v>1.746314025496809</v>
+        <v>1.863208987134324</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="2">
-        <v>43053</v>
+        <v>39126</v>
       </c>
       <c r="B91">
-        <v>2017</v>
+        <v>2007</v>
       </c>
       <c r="C91">
-        <v>2.54573700790961</v>
+        <v>2.416268882941885</v>
       </c>
       <c r="D91">
-        <v>2018</v>
+        <v>2008</v>
       </c>
       <c r="E91">
-        <v>2.15356679889549</v>
+        <v>1.54018541130112</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="2">
-        <v>43145</v>
+        <v>39217</v>
       </c>
       <c r="B92">
-        <v>2018</v>
+        <v>2007</v>
       </c>
       <c r="C92">
-        <v>2.145682023461037</v>
+        <v>2.644331987985127</v>
       </c>
       <c r="D92">
-        <v>2019</v>
+        <v>2008</v>
       </c>
       <c r="E92">
-        <v>1.655594237651448</v>
+        <v>1.618758147029653</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="2">
-        <v>43235</v>
+        <v>39308</v>
       </c>
       <c r="B93">
-        <v>2018</v>
+        <v>2007</v>
       </c>
       <c r="C93">
-        <v>1.814946630842762</v>
+        <v>2.463900898486049</v>
       </c>
       <c r="D93">
-        <v>2019</v>
+        <v>2008</v>
       </c>
       <c r="E93">
-        <v>1.477668145972499</v>
+        <v>1.439039865002134</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="2">
-        <v>43326</v>
+        <v>39400</v>
       </c>
       <c r="B94">
-        <v>2018</v>
+        <v>2007</v>
       </c>
       <c r="C94">
-        <v>1.833917811424923</v>
+        <v>2.635105211127575</v>
       </c>
       <c r="D94">
-        <v>2019</v>
+        <v>2008</v>
       </c>
       <c r="E94">
-        <v>1.482713323460105</v>
+        <v>1.722015618408701</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="2">
-        <v>43418</v>
+        <v>39492</v>
       </c>
       <c r="B95">
-        <v>2018</v>
+        <v>2008</v>
       </c>
       <c r="C95">
-        <v>1.467563812511452</v>
+        <v>1.585034188191714</v>
       </c>
       <c r="D95">
-        <v>2019</v>
+        <v>2009</v>
       </c>
       <c r="E95">
-        <v>0.7694605565311097</v>
+        <v>1.585674960490113</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="2">
-        <v>43510</v>
+        <v>39583</v>
       </c>
       <c r="B96">
-        <v>2019</v>
+        <v>2008</v>
       </c>
       <c r="C96">
-        <v>0.6144150995606168</v>
+        <v>2.914742198403797</v>
       </c>
       <c r="D96">
-        <v>2020</v>
+        <v>2009</v>
       </c>
       <c r="E96">
-        <v>1.17005815250153</v>
+        <v>1.949882598369124</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="2">
-        <v>43600</v>
+        <v>39674</v>
       </c>
       <c r="B97">
-        <v>2019</v>
+        <v>2008</v>
       </c>
       <c r="C97">
-        <v>0.9755302942728195</v>
+        <v>1.849664159209219</v>
       </c>
       <c r="D97">
-        <v>2020</v>
+        <v>2009</v>
       </c>
       <c r="E97">
-        <v>1.308311503751969</v>
+        <v>1.258622825501221</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="2">
-        <v>43691</v>
+        <v>39765</v>
       </c>
       <c r="B98">
-        <v>2019</v>
+        <v>2008</v>
       </c>
       <c r="C98">
-        <v>0.6763657625222574</v>
+        <v>1.485199759936107</v>
       </c>
       <c r="D98">
-        <v>2020</v>
+        <v>2009</v>
       </c>
       <c r="E98">
-        <v>0.9449343475431693</v>
+        <v>0.443605991657714</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="2">
-        <v>43783</v>
+        <v>39857</v>
       </c>
       <c r="B99">
-        <v>2019</v>
+        <v>2009</v>
       </c>
       <c r="C99">
-        <v>0.573813583266336</v>
+        <v>-2.925220177089027</v>
       </c>
       <c r="D99">
-        <v>2020</v>
+        <v>2010</v>
       </c>
       <c r="E99">
-        <v>0.7682770484317203</v>
+        <v>0.1087431448965059</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="2">
-        <v>43875</v>
+        <v>39948</v>
       </c>
       <c r="B100">
-        <v>2020</v>
+        <v>2009</v>
       </c>
       <c r="C100">
-        <v>0.6190211190723716</v>
+        <v>-10.38912473755519</v>
       </c>
       <c r="D100">
-        <v>2021</v>
+        <v>2010</v>
       </c>
       <c r="E100">
-        <v>1.084641646955609</v>
+        <v>-13.02588630704915</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="2">
-        <v>43966</v>
+        <v>40038</v>
       </c>
       <c r="B101">
-        <v>2020</v>
+        <v>2009</v>
       </c>
       <c r="C101">
-        <v>-2.88765784846251</v>
+        <v>-5.493279456187173</v>
       </c>
       <c r="D101">
-        <v>2021</v>
+        <v>2010</v>
       </c>
       <c r="E101">
-        <v>-0.08203399280549695</v>
+        <v>0.3099897690161502</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="2">
-        <v>44068</v>
+        <v>40130</v>
       </c>
       <c r="B102">
-        <v>2020</v>
+        <v>2009</v>
       </c>
       <c r="C102">
-        <v>-13.62257802198732</v>
+        <v>-4.838386464989386</v>
       </c>
       <c r="D102">
-        <v>2021</v>
+        <v>2010</v>
       </c>
       <c r="E102">
-        <v>-18.77753932536402</v>
+        <v>1.556350517939564</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="2">
-        <v>44159</v>
+        <v>40221</v>
       </c>
       <c r="B103">
-        <v>2020</v>
+        <v>2010</v>
       </c>
       <c r="C103">
-        <v>-6.332038390823524</v>
+        <v>0.9288791585305711</v>
       </c>
       <c r="D103">
-        <v>2021</v>
+        <v>2011</v>
       </c>
       <c r="E103">
-        <v>0.4447691747926807</v>
+        <v>0.8822063211653797</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="2">
-        <v>44251</v>
+        <v>40310</v>
       </c>
       <c r="B104">
-        <v>2021</v>
+        <v>2010</v>
       </c>
       <c r="C104">
-        <v>1.393690305272322</v>
+        <v>1.071809041675276</v>
       </c>
       <c r="D104">
-        <v>2022</v>
+        <v>2011</v>
       </c>
       <c r="E104">
-        <v>0.9993666180888372</v>
+        <v>0.8342879232527967</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="2">
-        <v>44341</v>
+        <v>40403</v>
       </c>
       <c r="B105">
-        <v>2021</v>
+        <v>2010</v>
       </c>
       <c r="C105">
-        <v>1.10051964147142</v>
+        <v>3.577564492651675</v>
       </c>
       <c r="D105">
-        <v>2022</v>
+        <v>2011</v>
       </c>
       <c r="E105">
-        <v>1.367775147972683</v>
+        <v>2.731583858664188</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="2">
-        <v>44432</v>
+        <v>40494</v>
       </c>
       <c r="B106">
-        <v>2021</v>
+        <v>2010</v>
       </c>
       <c r="C106">
-        <v>1.596719456215823</v>
+        <v>3.522877896197807</v>
       </c>
       <c r="D106">
-        <v>2022</v>
+        <v>2011</v>
       </c>
       <c r="E106">
-        <v>1.64009848016855</v>
+        <v>2.252953350090348</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="2">
-        <v>44525</v>
+        <v>40589</v>
       </c>
       <c r="B107">
-        <v>2021</v>
+        <v>2011</v>
       </c>
       <c r="C107">
-        <v>2.50078376310503</v>
+        <v>2.021953894754303</v>
       </c>
       <c r="D107">
-        <v>2022</v>
+        <v>2012</v>
       </c>
       <c r="E107">
-        <v>2.02294041918627</v>
+        <v>1.306806877555622</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="2">
-        <v>44617</v>
+        <v>40676</v>
       </c>
       <c r="B108">
-        <v>2022</v>
+        <v>2011</v>
       </c>
       <c r="C108">
-        <v>2.171220559958353</v>
+        <v>3.720096369677184</v>
       </c>
       <c r="D108">
-        <v>2023</v>
+        <v>2012</v>
       </c>
       <c r="E108">
-        <v>1.622870635453788</v>
+        <v>1.686787594525496</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="2">
-        <v>44706</v>
+        <v>40771</v>
       </c>
       <c r="B109">
-        <v>2022</v>
+        <v>2011</v>
       </c>
       <c r="C109">
-        <v>2.093637744778643</v>
+        <v>2.851982935378228</v>
       </c>
       <c r="D109">
-        <v>2023</v>
+        <v>2012</v>
       </c>
       <c r="E109">
-        <v>1.595534183633029</v>
+        <v>1.136030550102829</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="2">
-        <v>44798</v>
+        <v>40862</v>
       </c>
       <c r="B110">
-        <v>2022</v>
+        <v>2011</v>
       </c>
       <c r="C110">
-        <v>2.047503765332293</v>
+        <v>3.172593145981373</v>
       </c>
       <c r="D110">
-        <v>2023</v>
+        <v>2012</v>
       </c>
       <c r="E110">
-        <v>1.450008929318436</v>
+        <v>1.460171959067247</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="2">
-        <v>44890</v>
+        <v>40954</v>
       </c>
       <c r="B111">
-        <v>2022</v>
+        <v>2012</v>
       </c>
       <c r="C111">
-        <v>2.036925251458377</v>
+        <v>0.613364121638349</v>
       </c>
       <c r="D111">
-        <v>2023</v>
+        <v>2013</v>
       </c>
       <c r="E111">
-        <v>1.390457834055581</v>
+        <v>1.081133053453542</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="2">
-        <v>44981</v>
+        <v>41044</v>
       </c>
       <c r="B112">
-        <v>2023</v>
+        <v>2012</v>
       </c>
       <c r="C112">
-        <v>1.094238427434013</v>
+        <v>1.276650241283095</v>
       </c>
       <c r="D112">
-        <v>2024</v>
+        <v>2013</v>
       </c>
       <c r="E112">
-        <v>1.321355059964002</v>
+        <v>1.19633550657503</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="2">
-        <v>45071</v>
+        <v>41135</v>
       </c>
       <c r="B113">
-        <v>2023</v>
+        <v>2012</v>
       </c>
       <c r="C113">
-        <v>0.2704008632326893</v>
+        <v>1.086563863520862</v>
       </c>
       <c r="D113">
-        <v>2024</v>
+        <v>2013</v>
       </c>
       <c r="E113">
-        <v>1.264914507337878</v>
+        <v>1.06457164149647</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="2">
-        <v>45163</v>
+        <v>41228</v>
       </c>
       <c r="B114">
-        <v>2023</v>
+        <v>2012</v>
       </c>
       <c r="C114">
-        <v>0.0973275205688573</v>
+        <v>1.075749333634834</v>
       </c>
       <c r="D114">
-        <v>2024</v>
+        <v>2013</v>
       </c>
       <c r="E114">
-        <v>1.155931536963561</v>
+        <v>1.106002658655192</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="2">
-        <v>45254</v>
+        <v>41319</v>
       </c>
       <c r="B115">
-        <v>2023</v>
+        <v>2013</v>
       </c>
       <c r="C115">
-        <v>0.006976824310989116</v>
+        <v>-0.1408840671955125</v>
       </c>
       <c r="D115">
-        <v>2024</v>
+        <v>2014</v>
       </c>
       <c r="E115">
-        <v>1.013493932837783</v>
+        <v>0.9790721284826276</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="2">
-        <v>45345</v>
+        <v>41409</v>
       </c>
       <c r="B116">
-        <v>2024</v>
+        <v>2013</v>
       </c>
       <c r="C116">
-        <v>0.777040352969971</v>
+        <v>-0.03137857138646449</v>
       </c>
       <c r="D116">
-        <v>2025</v>
+        <v>2014</v>
       </c>
       <c r="E116">
-        <v>1.068175595509357</v>
+        <v>0.8494291553396094</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="2">
-        <v>45436</v>
+        <v>41500</v>
       </c>
       <c r="B117">
-        <v>2024</v>
+        <v>2013</v>
       </c>
       <c r="C117">
-        <v>0.4339626597083202</v>
+        <v>0.6094282583182231</v>
       </c>
       <c r="D117">
-        <v>2025</v>
+        <v>2014</v>
       </c>
       <c r="E117">
-        <v>1.098925859512323</v>
+        <v>1.440500538214629</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="2">
-        <v>45534</v>
+        <v>41592</v>
       </c>
       <c r="B118">
-        <v>2024</v>
+        <v>2013</v>
       </c>
       <c r="C118">
-        <v>0.233555755601067</v>
+        <v>0.5135943516859198</v>
       </c>
       <c r="D118">
-        <v>2025</v>
+        <v>2014</v>
       </c>
       <c r="E118">
-        <v>1.030082119929365</v>
+        <v>1.304915753449687</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="2">
-        <v>45618</v>
+        <v>41684</v>
       </c>
       <c r="B119">
-        <v>2024</v>
+        <v>2014</v>
       </c>
       <c r="C119">
-        <v>-0.03686848375263896</v>
+        <v>1.408749482567595</v>
       </c>
       <c r="D119">
-        <v>2025</v>
+        <v>2015</v>
       </c>
       <c r="E119">
-        <v>0.9237465935730382</v>
+        <v>1.146596633558361</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="2">
-        <v>45713</v>
+        <v>41774</v>
       </c>
       <c r="B120">
-        <v>2025</v>
+        <v>2014</v>
       </c>
       <c r="C120">
-        <v>0.6896020733472286</v>
+        <v>2.183348446776856</v>
       </c>
       <c r="D120">
-        <v>2026</v>
+        <v>2015</v>
       </c>
       <c r="E120">
-        <v>1.025816580054362</v>
+        <v>1.476241482808471</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="2">
+        <v>41865</v>
+      </c>
+      <c r="B121">
+        <v>2014</v>
+      </c>
+      <c r="C121">
+        <v>1.308305381840369</v>
+      </c>
+      <c r="D121">
+        <v>2015</v>
+      </c>
+      <c r="E121">
+        <v>0.726330085526028</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
+      <c r="A122" s="2">
+        <v>41957</v>
+      </c>
+      <c r="B122">
+        <v>2014</v>
+      </c>
+      <c r="C122">
+        <v>1.463603839062211</v>
+      </c>
+      <c r="D122">
+        <v>2015</v>
+      </c>
+      <c r="E122">
+        <v>0.7345358670387547</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
+      <c r="A123" s="2">
+        <v>42048</v>
+      </c>
+      <c r="B123">
+        <v>2015</v>
+      </c>
+      <c r="C123">
+        <v>1.555506802213324</v>
+      </c>
+      <c r="D123">
+        <v>2016</v>
+      </c>
+      <c r="E123">
+        <v>1.247251478420663</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
+      <c r="A124" s="2">
+        <v>42137</v>
+      </c>
+      <c r="B124">
+        <v>2015</v>
+      </c>
+      <c r="C124">
+        <v>1.291204709804039</v>
+      </c>
+      <c r="D124">
+        <v>2016</v>
+      </c>
+      <c r="E124">
+        <v>1.334784545494694</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
+      <c r="A125" s="2">
+        <v>42230</v>
+      </c>
+      <c r="B125">
+        <v>2015</v>
+      </c>
+      <c r="C125">
+        <v>1.503879794234519</v>
+      </c>
+      <c r="D125">
+        <v>2016</v>
+      </c>
+      <c r="E125">
+        <v>1.427154289074717</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
+      <c r="A126" s="2">
+        <v>42321</v>
+      </c>
+      <c r="B126">
+        <v>2015</v>
+      </c>
+      <c r="C126">
+        <v>1.460561192715071</v>
+      </c>
+      <c r="D126">
+        <v>2016</v>
+      </c>
+      <c r="E126">
+        <v>1.316306168565684</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
+      <c r="A127" s="2">
+        <v>42412</v>
+      </c>
+      <c r="B127">
+        <v>2016</v>
+      </c>
+      <c r="C127">
+        <v>1.211140135558786</v>
+      </c>
+      <c r="D127">
+        <v>2017</v>
+      </c>
+      <c r="E127">
+        <v>1.281269266985707</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
+      <c r="A128" s="2">
+        <v>42503</v>
+      </c>
+      <c r="B128">
+        <v>2016</v>
+      </c>
+      <c r="C128">
+        <v>1.789277221144991</v>
+      </c>
+      <c r="D128">
+        <v>2017</v>
+      </c>
+      <c r="E128">
+        <v>1.517762585655458</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
+      <c r="A129" s="2">
+        <v>42594</v>
+      </c>
+      <c r="B129">
+        <v>2016</v>
+      </c>
+      <c r="C129">
+        <v>1.831409032854858</v>
+      </c>
+      <c r="D129">
+        <v>2017</v>
+      </c>
+      <c r="E129">
+        <v>1.455762792597137</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
+      <c r="A130" s="2">
+        <v>42689</v>
+      </c>
+      <c r="B130">
+        <v>2016</v>
+      </c>
+      <c r="C130">
+        <v>1.71486702353103</v>
+      </c>
+      <c r="D130">
+        <v>2017</v>
+      </c>
+      <c r="E130">
+        <v>1.271337706785514</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
+      <c r="A131" s="2">
+        <v>42780</v>
+      </c>
+      <c r="B131">
+        <v>2017</v>
+      </c>
+      <c r="C131">
+        <v>1.469790059051301</v>
+      </c>
+      <c r="D131">
+        <v>2018</v>
+      </c>
+      <c r="E131">
+        <v>1.488538737086698</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5">
+      <c r="A132" s="2">
+        <v>42867</v>
+      </c>
+      <c r="B132">
+        <v>2017</v>
+      </c>
+      <c r="C132">
+        <v>1.816297695264346</v>
+      </c>
+      <c r="D132">
+        <v>2018</v>
+      </c>
+      <c r="E132">
+        <v>1.651160881705249</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5">
+      <c r="A133" s="2">
+        <v>42962</v>
+      </c>
+      <c r="B133">
+        <v>2017</v>
+      </c>
+      <c r="C133">
+        <v>2.141958087655205</v>
+      </c>
+      <c r="D133">
+        <v>2018</v>
+      </c>
+      <c r="E133">
+        <v>1.746314025496809</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5">
+      <c r="A134" s="2">
+        <v>43053</v>
+      </c>
+      <c r="B134">
+        <v>2017</v>
+      </c>
+      <c r="C134">
+        <v>2.54573700790961</v>
+      </c>
+      <c r="D134">
+        <v>2018</v>
+      </c>
+      <c r="E134">
+        <v>2.15356679889549</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5">
+      <c r="A135" s="2">
+        <v>43145</v>
+      </c>
+      <c r="B135">
+        <v>2018</v>
+      </c>
+      <c r="C135">
+        <v>2.145682023461037</v>
+      </c>
+      <c r="D135">
+        <v>2019</v>
+      </c>
+      <c r="E135">
+        <v>1.655594237651448</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5">
+      <c r="A136" s="2">
+        <v>43235</v>
+      </c>
+      <c r="B136">
+        <v>2018</v>
+      </c>
+      <c r="C136">
+        <v>1.814946630842762</v>
+      </c>
+      <c r="D136">
+        <v>2019</v>
+      </c>
+      <c r="E136">
+        <v>1.477668145972499</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5">
+      <c r="A137" s="2">
+        <v>43326</v>
+      </c>
+      <c r="B137">
+        <v>2018</v>
+      </c>
+      <c r="C137">
+        <v>1.833917811424923</v>
+      </c>
+      <c r="D137">
+        <v>2019</v>
+      </c>
+      <c r="E137">
+        <v>1.482713323460105</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5">
+      <c r="A138" s="2">
+        <v>43418</v>
+      </c>
+      <c r="B138">
+        <v>2018</v>
+      </c>
+      <c r="C138">
+        <v>1.467563812511452</v>
+      </c>
+      <c r="D138">
+        <v>2019</v>
+      </c>
+      <c r="E138">
+        <v>0.7694605565311097</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5">
+      <c r="A139" s="2">
+        <v>43510</v>
+      </c>
+      <c r="B139">
+        <v>2019</v>
+      </c>
+      <c r="C139">
+        <v>0.6144150995606168</v>
+      </c>
+      <c r="D139">
+        <v>2020</v>
+      </c>
+      <c r="E139">
+        <v>1.17005815250153</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5">
+      <c r="A140" s="2">
+        <v>43600</v>
+      </c>
+      <c r="B140">
+        <v>2019</v>
+      </c>
+      <c r="C140">
+        <v>0.9755302942728195</v>
+      </c>
+      <c r="D140">
+        <v>2020</v>
+      </c>
+      <c r="E140">
+        <v>1.308311503751969</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5">
+      <c r="A141" s="2">
+        <v>43691</v>
+      </c>
+      <c r="B141">
+        <v>2019</v>
+      </c>
+      <c r="C141">
+        <v>0.6763657625222574</v>
+      </c>
+      <c r="D141">
+        <v>2020</v>
+      </c>
+      <c r="E141">
+        <v>0.9449343475431693</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5">
+      <c r="A142" s="2">
+        <v>43783</v>
+      </c>
+      <c r="B142">
+        <v>2019</v>
+      </c>
+      <c r="C142">
+        <v>0.573813583266336</v>
+      </c>
+      <c r="D142">
+        <v>2020</v>
+      </c>
+      <c r="E142">
+        <v>0.7682770484317203</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5">
+      <c r="A143" s="2">
+        <v>43875</v>
+      </c>
+      <c r="B143">
+        <v>2020</v>
+      </c>
+      <c r="C143">
+        <v>0.6190211190723716</v>
+      </c>
+      <c r="D143">
+        <v>2021</v>
+      </c>
+      <c r="E143">
+        <v>1.084641646955609</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5">
+      <c r="A144" s="2">
+        <v>43966</v>
+      </c>
+      <c r="B144">
+        <v>2020</v>
+      </c>
+      <c r="C144">
+        <v>-2.88765784846251</v>
+      </c>
+      <c r="D144">
+        <v>2021</v>
+      </c>
+      <c r="E144">
+        <v>-0.08203399280549695</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5">
+      <c r="A145" s="2">
+        <v>44068</v>
+      </c>
+      <c r="B145">
+        <v>2020</v>
+      </c>
+      <c r="C145">
+        <v>-13.62257802198732</v>
+      </c>
+      <c r="D145">
+        <v>2021</v>
+      </c>
+      <c r="E145">
+        <v>-18.77753932536402</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5">
+      <c r="A146" s="2">
+        <v>44159</v>
+      </c>
+      <c r="B146">
+        <v>2020</v>
+      </c>
+      <c r="C146">
+        <v>-6.332038390823524</v>
+      </c>
+      <c r="D146">
+        <v>2021</v>
+      </c>
+      <c r="E146">
+        <v>0.4447691747926807</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5">
+      <c r="A147" s="2">
+        <v>44251</v>
+      </c>
+      <c r="B147">
+        <v>2021</v>
+      </c>
+      <c r="C147">
+        <v>1.393690305272322</v>
+      </c>
+      <c r="D147">
+        <v>2022</v>
+      </c>
+      <c r="E147">
+        <v>0.9993666180888372</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5">
+      <c r="A148" s="2">
+        <v>44341</v>
+      </c>
+      <c r="B148">
+        <v>2021</v>
+      </c>
+      <c r="C148">
+        <v>1.10051964147142</v>
+      </c>
+      <c r="D148">
+        <v>2022</v>
+      </c>
+      <c r="E148">
+        <v>1.367775147972683</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5">
+      <c r="A149" s="2">
+        <v>44432</v>
+      </c>
+      <c r="B149">
+        <v>2021</v>
+      </c>
+      <c r="C149">
+        <v>1.596719456215823</v>
+      </c>
+      <c r="D149">
+        <v>2022</v>
+      </c>
+      <c r="E149">
+        <v>1.64009848016855</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5">
+      <c r="A150" s="2">
+        <v>44525</v>
+      </c>
+      <c r="B150">
+        <v>2021</v>
+      </c>
+      <c r="C150">
+        <v>2.50078376310503</v>
+      </c>
+      <c r="D150">
+        <v>2022</v>
+      </c>
+      <c r="E150">
+        <v>2.02294041918627</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5">
+      <c r="A151" s="2">
+        <v>44617</v>
+      </c>
+      <c r="B151">
+        <v>2022</v>
+      </c>
+      <c r="C151">
+        <v>2.171220559958353</v>
+      </c>
+      <c r="D151">
+        <v>2023</v>
+      </c>
+      <c r="E151">
+        <v>1.622870635453788</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5">
+      <c r="A152" s="2">
+        <v>44706</v>
+      </c>
+      <c r="B152">
+        <v>2022</v>
+      </c>
+      <c r="C152">
+        <v>2.093637744778643</v>
+      </c>
+      <c r="D152">
+        <v>2023</v>
+      </c>
+      <c r="E152">
+        <v>1.595534183633029</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5">
+      <c r="A153" s="2">
+        <v>44798</v>
+      </c>
+      <c r="B153">
+        <v>2022</v>
+      </c>
+      <c r="C153">
+        <v>2.047503765332293</v>
+      </c>
+      <c r="D153">
+        <v>2023</v>
+      </c>
+      <c r="E153">
+        <v>1.450008929318436</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5">
+      <c r="A154" s="2">
+        <v>44890</v>
+      </c>
+      <c r="B154">
+        <v>2022</v>
+      </c>
+      <c r="C154">
+        <v>2.036925251458377</v>
+      </c>
+      <c r="D154">
+        <v>2023</v>
+      </c>
+      <c r="E154">
+        <v>1.390457834055581</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5">
+      <c r="A155" s="2">
+        <v>44981</v>
+      </c>
+      <c r="B155">
+        <v>2023</v>
+      </c>
+      <c r="C155">
+        <v>1.094238427434013</v>
+      </c>
+      <c r="D155">
+        <v>2024</v>
+      </c>
+      <c r="E155">
+        <v>1.321355059964002</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5">
+      <c r="A156" s="2">
+        <v>45071</v>
+      </c>
+      <c r="B156">
+        <v>2023</v>
+      </c>
+      <c r="C156">
+        <v>0.2704008632326893</v>
+      </c>
+      <c r="D156">
+        <v>2024</v>
+      </c>
+      <c r="E156">
+        <v>1.264914507337878</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5">
+      <c r="A157" s="2">
+        <v>45163</v>
+      </c>
+      <c r="B157">
+        <v>2023</v>
+      </c>
+      <c r="C157">
+        <v>0.0973275205688573</v>
+      </c>
+      <c r="D157">
+        <v>2024</v>
+      </c>
+      <c r="E157">
+        <v>1.155931536963561</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5">
+      <c r="A158" s="2">
+        <v>45254</v>
+      </c>
+      <c r="B158">
+        <v>2023</v>
+      </c>
+      <c r="C158">
+        <v>0.006976824310989116</v>
+      </c>
+      <c r="D158">
+        <v>2024</v>
+      </c>
+      <c r="E158">
+        <v>1.013493932837783</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5">
+      <c r="A159" s="2">
+        <v>45345</v>
+      </c>
+      <c r="B159">
+        <v>2024</v>
+      </c>
+      <c r="C159">
+        <v>0.777040352969971</v>
+      </c>
+      <c r="D159">
+        <v>2025</v>
+      </c>
+      <c r="E159">
+        <v>1.068175595509357</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5">
+      <c r="A160" s="2">
+        <v>45436</v>
+      </c>
+      <c r="B160">
+        <v>2024</v>
+      </c>
+      <c r="C160">
+        <v>0.4339626597083202</v>
+      </c>
+      <c r="D160">
+        <v>2025</v>
+      </c>
+      <c r="E160">
+        <v>1.098925859512323</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5">
+      <c r="A161" s="2">
+        <v>45534</v>
+      </c>
+      <c r="B161">
+        <v>2024</v>
+      </c>
+      <c r="C161">
+        <v>0.233555755601067</v>
+      </c>
+      <c r="D161">
+        <v>2025</v>
+      </c>
+      <c r="E161">
+        <v>1.030082119929365</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5">
+      <c r="A162" s="2">
+        <v>45618</v>
+      </c>
+      <c r="B162">
+        <v>2024</v>
+      </c>
+      <c r="C162">
+        <v>-0.03686848375263896</v>
+      </c>
+      <c r="D162">
+        <v>2025</v>
+      </c>
+      <c r="E162">
+        <v>0.9237465935730382</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5">
+      <c r="A163" s="2">
+        <v>45713</v>
+      </c>
+      <c r="B163">
+        <v>2025</v>
+      </c>
+      <c r="C163">
+        <v>0.6896020733472286</v>
+      </c>
+      <c r="D163">
+        <v>2026</v>
+      </c>
+      <c r="E163">
+        <v>1.025816580054362</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5">
+      <c r="A164" s="2">
         <v>45800</v>
       </c>
-      <c r="B121">
+      <c r="B164">
         <v>2025</v>
       </c>
-      <c r="C121">
+      <c r="C164">
         <v>0.6712205726778775</v>
       </c>
-      <c r="D121">
+      <c r="D164">
         <v>2026</v>
       </c>
-      <c r="E121">
+      <c r="E164">
         <v>1.081926859399074</v>
       </c>
     </row>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_yoy_AR2_50_9_full.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_yoy_AR2_50_9_full.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E164"/>
+  <dimension ref="A1:E148"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -417,2772 +417,2500 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="2">
-        <v>31047</v>
+        <v>32508</v>
       </c>
       <c r="B2">
-        <v>1984</v>
+        <v>1988</v>
       </c>
       <c r="C2">
-        <v>2.681929770019686</v>
+        <v>3.194969449935003</v>
       </c>
       <c r="D2">
-        <v>1985</v>
+        <v>1989</v>
       </c>
       <c r="E2">
-        <v>2.73475129348093</v>
+        <v>2.654510774528207</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="2">
-        <v>31137</v>
+        <v>32598</v>
       </c>
       <c r="B3">
-        <v>1985</v>
+        <v>1989</v>
       </c>
       <c r="C3">
-        <v>3.342274548407542</v>
+        <v>3.078003875303725</v>
       </c>
       <c r="D3">
-        <v>1986</v>
+        <v>1990</v>
       </c>
       <c r="E3">
-        <v>2.148130019038574</v>
+        <v>2.234699437753784</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="2">
-        <v>31228</v>
+        <v>32689</v>
       </c>
       <c r="B4">
-        <v>1985</v>
+        <v>1989</v>
       </c>
       <c r="C4">
-        <v>1.777145513200118</v>
+        <v>3.661580277249166</v>
       </c>
       <c r="D4">
-        <v>1986</v>
+        <v>1990</v>
       </c>
       <c r="E4">
-        <v>1.897195788720762</v>
+        <v>2.193258610001214</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="2">
-        <v>31320</v>
+        <v>32781</v>
       </c>
       <c r="B5">
-        <v>1985</v>
+        <v>1989</v>
       </c>
       <c r="C5">
-        <v>2.113747227894192</v>
+        <v>3.6938275965265</v>
       </c>
       <c r="D5">
-        <v>1986</v>
+        <v>1990</v>
       </c>
       <c r="E5">
-        <v>2.039716681346326</v>
+        <v>2.191051164767877</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="2">
-        <v>31412</v>
+        <v>32873</v>
       </c>
       <c r="B6">
-        <v>1985</v>
+        <v>1989</v>
       </c>
       <c r="C6">
-        <v>2.573947575822677</v>
+        <v>3.85009945173751</v>
       </c>
       <c r="D6">
-        <v>1986</v>
+        <v>1990</v>
       </c>
       <c r="E6">
-        <v>2.58358492564803</v>
+        <v>2.342799083309055</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="2">
-        <v>31502</v>
+        <v>32963</v>
       </c>
       <c r="B7">
-        <v>1986</v>
+        <v>1990</v>
       </c>
       <c r="C7">
-        <v>2.694090856026343</v>
+        <v>2.666162325285693</v>
       </c>
       <c r="D7">
-        <v>1987</v>
+        <v>1991</v>
       </c>
       <c r="E7">
-        <v>2.069264760691669</v>
+        <v>2.26485329164865</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="2">
-        <v>31593</v>
+        <v>33054</v>
       </c>
       <c r="B8">
-        <v>1986</v>
+        <v>1990</v>
       </c>
       <c r="C8">
-        <v>1.520629350269975</v>
+        <v>4.130619852766437</v>
       </c>
       <c r="D8">
-        <v>1987</v>
+        <v>1991</v>
       </c>
       <c r="E8">
-        <v>1.941216181406236</v>
+        <v>2.272904440822465</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2">
-        <v>31685</v>
+        <v>33146</v>
       </c>
       <c r="B9">
-        <v>1986</v>
+        <v>1990</v>
       </c>
       <c r="C9">
-        <v>2.010410230048287</v>
+        <v>4.360305978402312</v>
       </c>
       <c r="D9">
-        <v>1987</v>
+        <v>1991</v>
       </c>
       <c r="E9">
-        <v>2.190379109521401</v>
+        <v>2.354203638264551</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="2">
-        <v>31777</v>
+        <v>33238</v>
       </c>
       <c r="B10">
-        <v>1986</v>
+        <v>1990</v>
       </c>
       <c r="C10">
-        <v>2.161034240664228</v>
+        <v>5.073362306219398</v>
       </c>
       <c r="D10">
-        <v>1987</v>
+        <v>1991</v>
       </c>
       <c r="E10">
-        <v>2.388724974429235</v>
+        <v>2.977303796668029</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="2">
-        <v>31867</v>
+        <v>33328</v>
       </c>
       <c r="B11">
-        <v>1987</v>
+        <v>1991</v>
       </c>
       <c r="C11">
-        <v>2.818242306702046</v>
+        <v>3.912848990577067</v>
       </c>
       <c r="D11">
-        <v>1988</v>
+        <v>1992</v>
       </c>
       <c r="E11">
-        <v>2.289338730073864</v>
+        <v>2.519901525122537</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="2">
-        <v>31958</v>
+        <v>33419</v>
       </c>
       <c r="B12">
-        <v>1987</v>
+        <v>1991</v>
       </c>
       <c r="C12">
-        <v>0.006150708382479664</v>
+        <v>6.364491101711689</v>
       </c>
       <c r="D12">
-        <v>1988</v>
+        <v>1992</v>
       </c>
       <c r="E12">
-        <v>2.273434064658209</v>
+        <v>2.793798186209284</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2">
-        <v>32050</v>
+        <v>33511</v>
       </c>
       <c r="B13">
-        <v>1987</v>
+        <v>1991</v>
       </c>
       <c r="C13">
-        <v>0.8355527487941217</v>
+        <v>6.813462808712534</v>
       </c>
       <c r="D13">
-        <v>1988</v>
+        <v>1992</v>
       </c>
       <c r="E13">
-        <v>2.606637274983936</v>
+        <v>2.829294614456113</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="2">
-        <v>32142</v>
+        <v>33603</v>
       </c>
       <c r="B14">
-        <v>1987</v>
+        <v>1991</v>
       </c>
       <c r="C14">
-        <v>0.9697275934645422</v>
+        <v>6.091605135014255</v>
       </c>
       <c r="D14">
-        <v>1988</v>
+        <v>1992</v>
       </c>
       <c r="E14">
-        <v>2.698368179641242</v>
+        <v>2.066726874661873</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2">
-        <v>32233</v>
+        <v>33694</v>
       </c>
       <c r="B15">
-        <v>1988</v>
+        <v>1992</v>
       </c>
       <c r="C15">
-        <v>3.317879509925148</v>
+        <v>2.139879630803643</v>
       </c>
       <c r="D15">
-        <v>1989</v>
+        <v>1993</v>
       </c>
       <c r="E15">
-        <v>2.320290242387757</v>
+        <v>2.541176785496058</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2">
-        <v>32324</v>
+        <v>33785</v>
       </c>
       <c r="B16">
-        <v>1988</v>
+        <v>1992</v>
       </c>
       <c r="C16">
-        <v>2.284628917872622</v>
+        <v>2.932796654414149</v>
       </c>
       <c r="D16">
-        <v>1989</v>
+        <v>1993</v>
       </c>
       <c r="E16">
-        <v>2.270390965314983</v>
+        <v>2.584450468619459</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2">
-        <v>32416</v>
+        <v>33877</v>
       </c>
       <c r="B17">
-        <v>1988</v>
+        <v>1992</v>
       </c>
       <c r="C17">
-        <v>2.814947814220914</v>
+        <v>2.494110716709286</v>
       </c>
       <c r="D17">
-        <v>1989</v>
+        <v>1993</v>
       </c>
       <c r="E17">
-        <v>2.359718272421008</v>
+        <v>2.492787484240577</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2">
-        <v>32508</v>
+        <v>33969</v>
       </c>
       <c r="B18">
-        <v>1988</v>
+        <v>1992</v>
       </c>
       <c r="C18">
-        <v>3.194969449935003</v>
+        <v>2.064701871240571</v>
       </c>
       <c r="D18">
-        <v>1989</v>
+        <v>1993</v>
       </c>
       <c r="E18">
-        <v>2.654510774528207</v>
+        <v>2.112386427028046</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2">
-        <v>32598</v>
+        <v>34059</v>
       </c>
       <c r="B19">
-        <v>1989</v>
+        <v>1993</v>
       </c>
       <c r="C19">
-        <v>3.078003875303725</v>
+        <v>1.549317903069802</v>
       </c>
       <c r="D19">
-        <v>1990</v>
+        <v>1994</v>
       </c>
       <c r="E19">
-        <v>2.234699437753784</v>
+        <v>2.659262185946587</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2">
-        <v>32689</v>
+        <v>34150</v>
       </c>
       <c r="B20">
-        <v>1989</v>
+        <v>1993</v>
       </c>
       <c r="C20">
-        <v>3.661580277249166</v>
+        <v>-1.06363680093724</v>
       </c>
       <c r="D20">
-        <v>1990</v>
+        <v>1994</v>
       </c>
       <c r="E20">
-        <v>2.193258610001214</v>
+        <v>2.368493192930488</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="2">
-        <v>32781</v>
+        <v>34242</v>
       </c>
       <c r="B21">
-        <v>1989</v>
+        <v>1993</v>
       </c>
       <c r="C21">
-        <v>3.6938275965265</v>
+        <v>-1.124761626679238</v>
       </c>
       <c r="D21">
-        <v>1990</v>
+        <v>1994</v>
       </c>
       <c r="E21">
-        <v>2.191051164767877</v>
+        <v>2.402262657257404</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="2">
-        <v>32873</v>
+        <v>34334</v>
       </c>
       <c r="B22">
-        <v>1989</v>
+        <v>1993</v>
       </c>
       <c r="C22">
-        <v>3.85009945173751</v>
+        <v>-1.000531514043412</v>
       </c>
       <c r="D22">
-        <v>1990</v>
+        <v>1994</v>
       </c>
       <c r="E22">
-        <v>2.342799083309055</v>
+        <v>2.575999544954621</v>
       </c>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="2">
-        <v>32963</v>
+        <v>34424</v>
       </c>
       <c r="B23">
-        <v>1990</v>
+        <v>1994</v>
       </c>
       <c r="C23">
-        <v>2.666162325285693</v>
+        <v>1.991768926775084</v>
       </c>
       <c r="D23">
-        <v>1991</v>
+        <v>1995</v>
       </c>
       <c r="E23">
-        <v>2.26485329164865</v>
+        <v>2.508787946950286</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2">
-        <v>33054</v>
+        <v>34515</v>
       </c>
       <c r="B24">
-        <v>1990</v>
+        <v>1994</v>
       </c>
       <c r="C24">
-        <v>4.130619852766437</v>
+        <v>2.479893153134016</v>
       </c>
       <c r="D24">
-        <v>1991</v>
+        <v>1995</v>
       </c>
       <c r="E24">
-        <v>2.272904440822465</v>
+        <v>2.567096653116252</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2">
-        <v>33146</v>
+        <v>34607</v>
       </c>
       <c r="B25">
-        <v>1990</v>
+        <v>1994</v>
       </c>
       <c r="C25">
-        <v>4.360305978402312</v>
+        <v>2.993503501929951</v>
       </c>
       <c r="D25">
-        <v>1991</v>
+        <v>1995</v>
       </c>
       <c r="E25">
-        <v>2.354203638264551</v>
+        <v>2.851639473444134</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2">
-        <v>33238</v>
+        <v>34699</v>
       </c>
       <c r="B26">
-        <v>1990</v>
+        <v>1994</v>
       </c>
       <c r="C26">
-        <v>5.073362306219398</v>
+        <v>2.998503002360153</v>
       </c>
       <c r="D26">
-        <v>1991</v>
+        <v>1995</v>
       </c>
       <c r="E26">
-        <v>2.977303796668029</v>
+        <v>2.954478109176528</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2">
-        <v>33328</v>
+        <v>34789</v>
       </c>
       <c r="B27">
-        <v>1991</v>
+        <v>1995</v>
       </c>
       <c r="C27">
-        <v>3.912848990577067</v>
+        <v>2.923150766105942</v>
       </c>
       <c r="D27">
-        <v>1992</v>
+        <v>1996</v>
       </c>
       <c r="E27">
-        <v>2.519901525122537</v>
+        <v>2.899861342051335</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2">
-        <v>33419</v>
+        <v>34880</v>
       </c>
       <c r="B28">
-        <v>1991</v>
+        <v>1995</v>
       </c>
       <c r="C28">
-        <v>6.364491101711689</v>
+        <v>2.432437183852798</v>
       </c>
       <c r="D28">
-        <v>1992</v>
+        <v>1996</v>
       </c>
       <c r="E28">
-        <v>2.793798186209284</v>
+        <v>2.872765583543457</v>
       </c>
     </row>
     <row r="29" spans="1:5">
       <c r="A29" s="2">
-        <v>33511</v>
+        <v>34948</v>
       </c>
       <c r="B29">
-        <v>1991</v>
+        <v>1995</v>
       </c>
       <c r="C29">
-        <v>6.813462808712534</v>
+        <v>2.622955649346648</v>
       </c>
       <c r="D29">
-        <v>1992</v>
+        <v>1996</v>
       </c>
       <c r="E29">
-        <v>2.829294614456113</v>
+        <v>2.915653518291639</v>
       </c>
     </row>
     <row r="30" spans="1:5">
       <c r="A30" s="2">
-        <v>33603</v>
+        <v>35040</v>
       </c>
       <c r="B30">
-        <v>1991</v>
+        <v>1995</v>
       </c>
       <c r="C30">
-        <v>6.091605135014255</v>
+        <v>2.310325699082871</v>
       </c>
       <c r="D30">
-        <v>1992</v>
+        <v>1996</v>
       </c>
       <c r="E30">
-        <v>2.066726874661873</v>
+        <v>2.658356052145039</v>
       </c>
     </row>
     <row r="31" spans="1:5">
       <c r="A31" s="2">
-        <v>33694</v>
+        <v>35131</v>
       </c>
       <c r="B31">
-        <v>1992</v>
+        <v>1996</v>
       </c>
       <c r="C31">
-        <v>2.139879630803643</v>
+        <v>1.87529243636666</v>
       </c>
       <c r="D31">
-        <v>1993</v>
+        <v>1997</v>
       </c>
       <c r="E31">
-        <v>2.541176785496058</v>
+        <v>2.745589533300552</v>
       </c>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2">
-        <v>33785</v>
+        <v>35221</v>
       </c>
       <c r="B32">
-        <v>1992</v>
+        <v>1996</v>
       </c>
       <c r="C32">
-        <v>2.932796654414149</v>
+        <v>0.7757377956089551</v>
       </c>
       <c r="D32">
-        <v>1993</v>
+        <v>1997</v>
       </c>
       <c r="E32">
-        <v>2.584450468619459</v>
+        <v>2.610245619887741</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="A33" s="2">
-        <v>33877</v>
+        <v>35313</v>
       </c>
       <c r="B33">
-        <v>1992</v>
+        <v>1996</v>
       </c>
       <c r="C33">
-        <v>2.494110716709286</v>
+        <v>1.335102954533496</v>
       </c>
       <c r="D33">
-        <v>1993</v>
+        <v>1997</v>
       </c>
       <c r="E33">
-        <v>2.492787484240577</v>
+        <v>2.984773230892523</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2">
-        <v>33969</v>
+        <v>35403</v>
       </c>
       <c r="B34">
-        <v>1992</v>
+        <v>1996</v>
       </c>
       <c r="C34">
-        <v>2.064701871240571</v>
+        <v>1.482055350913747</v>
       </c>
       <c r="D34">
-        <v>1993</v>
+        <v>1997</v>
       </c>
       <c r="E34">
-        <v>2.112386427028046</v>
+        <v>2.992107960012036</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2">
-        <v>34059</v>
+        <v>35493</v>
       </c>
       <c r="B35">
-        <v>1993</v>
+        <v>1997</v>
       </c>
       <c r="C35">
-        <v>1.549317903069802</v>
+        <v>2.445312678728806</v>
       </c>
       <c r="D35">
-        <v>1994</v>
+        <v>1998</v>
       </c>
       <c r="E35">
-        <v>2.659262185946587</v>
+        <v>2.577929127177692</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2">
-        <v>34150</v>
+        <v>35586</v>
       </c>
       <c r="B36">
-        <v>1993</v>
+        <v>1997</v>
       </c>
       <c r="C36">
-        <v>-1.06363680093724</v>
+        <v>2.220119463330095</v>
       </c>
       <c r="D36">
-        <v>1994</v>
+        <v>1998</v>
       </c>
       <c r="E36">
-        <v>2.368493192930488</v>
+        <v>2.64319810490059</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2">
-        <v>34242</v>
+        <v>35683</v>
       </c>
       <c r="B37">
-        <v>1993</v>
+        <v>1997</v>
       </c>
       <c r="C37">
-        <v>-1.124761626679238</v>
+        <v>2.342165263381912</v>
       </c>
       <c r="D37">
-        <v>1994</v>
+        <v>1998</v>
       </c>
       <c r="E37">
-        <v>2.402262657257404</v>
+        <v>2.716886837551424</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2">
-        <v>34334</v>
+        <v>35768</v>
       </c>
       <c r="B38">
-        <v>1993</v>
+        <v>1997</v>
       </c>
       <c r="C38">
-        <v>-1.000531514043412</v>
+        <v>2.439884175301343</v>
       </c>
       <c r="D38">
-        <v>1994</v>
+        <v>1998</v>
       </c>
       <c r="E38">
-        <v>2.575999544954621</v>
+        <v>2.773863658824549</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2">
-        <v>34424</v>
+        <v>35881</v>
       </c>
       <c r="B39">
-        <v>1994</v>
+        <v>1998</v>
       </c>
       <c r="C39">
-        <v>1.991768926775084</v>
+        <v>2.381150117272068</v>
       </c>
       <c r="D39">
-        <v>1995</v>
+        <v>1999</v>
       </c>
       <c r="E39">
-        <v>2.508787946950286</v>
+        <v>2.528385444177372</v>
       </c>
     </row>
     <row r="40" spans="1:5">
       <c r="A40" s="2">
-        <v>34515</v>
+        <v>35950</v>
       </c>
       <c r="B40">
-        <v>1994</v>
+        <v>1998</v>
       </c>
       <c r="C40">
-        <v>2.479893153134016</v>
+        <v>2.772784171603737</v>
       </c>
       <c r="D40">
-        <v>1995</v>
+        <v>1999</v>
       </c>
       <c r="E40">
-        <v>2.567096653116252</v>
+        <v>2.689796511187437</v>
       </c>
     </row>
     <row r="41" spans="1:5">
       <c r="A41" s="2">
-        <v>34607</v>
+        <v>36047</v>
       </c>
       <c r="B41">
-        <v>1994</v>
+        <v>1998</v>
       </c>
       <c r="C41">
-        <v>2.993503501929951</v>
+        <v>2.84227685047822</v>
       </c>
       <c r="D41">
-        <v>1995</v>
+        <v>1999</v>
       </c>
       <c r="E41">
-        <v>2.851639473444134</v>
+        <v>2.469054913123125</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="2">
-        <v>34699</v>
+        <v>36132</v>
       </c>
       <c r="B42">
-        <v>1994</v>
+        <v>1998</v>
       </c>
       <c r="C42">
-        <v>2.998503002360153</v>
+        <v>2.833473913903406</v>
       </c>
       <c r="D42">
-        <v>1995</v>
+        <v>1999</v>
       </c>
       <c r="E42">
-        <v>2.954478109176528</v>
+        <v>2.482507310682891</v>
       </c>
     </row>
     <row r="43" spans="1:5">
       <c r="A43" s="2">
-        <v>34789</v>
+        <v>36223</v>
       </c>
       <c r="B43">
-        <v>1995</v>
+        <v>1999</v>
       </c>
       <c r="C43">
-        <v>2.923150766105942</v>
+        <v>1.655287196880928</v>
       </c>
       <c r="D43">
-        <v>1996</v>
+        <v>2000</v>
       </c>
       <c r="E43">
-        <v>2.899861342051335</v>
+        <v>2.390562571520949</v>
       </c>
     </row>
     <row r="44" spans="1:5">
       <c r="A44" s="2">
-        <v>34880</v>
+        <v>36319</v>
       </c>
       <c r="B44">
-        <v>1995</v>
+        <v>1999</v>
       </c>
       <c r="C44">
-        <v>2.432437183852798</v>
+        <v>1.481562820846571</v>
       </c>
       <c r="D44">
-        <v>1996</v>
+        <v>2000</v>
       </c>
       <c r="E44">
-        <v>2.872765583543457</v>
+        <v>2.564763317404561</v>
       </c>
     </row>
     <row r="45" spans="1:5">
       <c r="A45" s="2">
-        <v>34948</v>
+        <v>36412</v>
       </c>
       <c r="B45">
-        <v>1995</v>
+        <v>1999</v>
       </c>
       <c r="C45">
-        <v>2.622955649346648</v>
+        <v>0.8861546371220719</v>
       </c>
       <c r="D45">
-        <v>1996</v>
+        <v>2000</v>
       </c>
       <c r="E45">
-        <v>2.915653518291639</v>
+        <v>2.142429114246314</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2">
-        <v>35040</v>
+        <v>36501</v>
       </c>
       <c r="B46">
-        <v>1995</v>
+        <v>1999</v>
       </c>
       <c r="C46">
-        <v>2.310325699082871</v>
+        <v>1.221733233617339</v>
       </c>
       <c r="D46">
-        <v>1996</v>
+        <v>2000</v>
       </c>
       <c r="E46">
-        <v>2.658356052145039</v>
+        <v>2.282946612411263</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="2">
-        <v>35131</v>
+        <v>36587</v>
       </c>
       <c r="B47">
-        <v>1996</v>
+        <v>2000</v>
       </c>
       <c r="C47">
-        <v>1.87529243636666</v>
+        <v>2.448320502468238</v>
       </c>
       <c r="D47">
-        <v>1997</v>
+        <v>2001</v>
       </c>
       <c r="E47">
-        <v>2.745589533300552</v>
+        <v>2.309224227556794</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="2">
-        <v>35221</v>
+        <v>36676</v>
       </c>
       <c r="B48">
-        <v>1996</v>
+        <v>2000</v>
       </c>
       <c r="C48">
-        <v>0.7757377956089551</v>
+        <v>2.564024492763806</v>
       </c>
       <c r="D48">
-        <v>1997</v>
+        <v>2001</v>
       </c>
       <c r="E48">
-        <v>2.610245619887741</v>
+        <v>2.473062944816595</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="2">
-        <v>35313</v>
+        <v>36767</v>
       </c>
       <c r="B49">
-        <v>1996</v>
+        <v>2000</v>
       </c>
       <c r="C49">
-        <v>1.335102954533496</v>
+        <v>3.153099622684863</v>
       </c>
       <c r="D49">
-        <v>1997</v>
+        <v>2001</v>
       </c>
       <c r="E49">
-        <v>2.984773230892523</v>
+        <v>2.621515653474216</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2">
-        <v>35403</v>
+        <v>36858</v>
       </c>
       <c r="B50">
-        <v>1996</v>
+        <v>2000</v>
       </c>
       <c r="C50">
-        <v>1.482055350913747</v>
+        <v>3.212706544592092</v>
       </c>
       <c r="D50">
-        <v>1997</v>
+        <v>2001</v>
       </c>
       <c r="E50">
-        <v>2.992107960012036</v>
+        <v>2.498927718860466</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2">
-        <v>35493</v>
+        <v>36951</v>
       </c>
       <c r="B51">
-        <v>1997</v>
+        <v>2001</v>
       </c>
       <c r="C51">
-        <v>2.445312678728806</v>
+        <v>1.915232257141031</v>
       </c>
       <c r="D51">
-        <v>1998</v>
+        <v>2002</v>
       </c>
       <c r="E51">
-        <v>2.577929127177692</v>
+        <v>2.237269708962941</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2">
-        <v>35586</v>
+        <v>37034</v>
       </c>
       <c r="B52">
-        <v>1997</v>
+        <v>2001</v>
       </c>
       <c r="C52">
-        <v>2.220119463330095</v>
+        <v>1.759737107832926</v>
       </c>
       <c r="D52">
-        <v>1998</v>
+        <v>2002</v>
       </c>
       <c r="E52">
-        <v>2.64319810490059</v>
+        <v>2.1823787252363</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2">
-        <v>35683</v>
+        <v>37126</v>
       </c>
       <c r="B53">
-        <v>1997</v>
+        <v>2001</v>
       </c>
       <c r="C53">
-        <v>2.342165263381912</v>
+        <v>1.200212790305688</v>
       </c>
       <c r="D53">
-        <v>1998</v>
+        <v>2002</v>
       </c>
       <c r="E53">
-        <v>2.716886837551424</v>
+        <v>1.945361731599915</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2">
-        <v>35768</v>
+        <v>37222</v>
       </c>
       <c r="B54">
-        <v>1997</v>
+        <v>2001</v>
       </c>
       <c r="C54">
-        <v>2.439884175301343</v>
+        <v>0.8718408608820116</v>
       </c>
       <c r="D54">
-        <v>1998</v>
+        <v>2002</v>
       </c>
       <c r="E54">
-        <v>2.773863658824549</v>
+        <v>1.451589658605279</v>
       </c>
     </row>
     <row r="55" spans="1:5">
       <c r="A55" s="2">
-        <v>35881</v>
+        <v>37314</v>
       </c>
       <c r="B55">
-        <v>1998</v>
+        <v>2002</v>
       </c>
       <c r="C55">
-        <v>2.381150117272068</v>
+        <v>0.7448884326621386</v>
       </c>
       <c r="D55">
-        <v>1999</v>
+        <v>2003</v>
       </c>
       <c r="E55">
-        <v>2.528385444177372</v>
+        <v>1.887617486540871</v>
       </c>
     </row>
     <row r="56" spans="1:5">
       <c r="A56" s="2">
-        <v>35950</v>
+        <v>37399</v>
       </c>
       <c r="B56">
-        <v>1998</v>
+        <v>2002</v>
       </c>
       <c r="C56">
-        <v>2.772784171603737</v>
+        <v>0.5027243209395182</v>
       </c>
       <c r="D56">
-        <v>1999</v>
+        <v>2003</v>
       </c>
       <c r="E56">
-        <v>2.689796511187437</v>
+        <v>1.723557921614716</v>
       </c>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2">
-        <v>36047</v>
+        <v>37490</v>
       </c>
       <c r="B57">
-        <v>1998</v>
+        <v>2002</v>
       </c>
       <c r="C57">
-        <v>2.84227685047822</v>
+        <v>0.4808578657098828</v>
       </c>
       <c r="D57">
-        <v>1999</v>
+        <v>2003</v>
       </c>
       <c r="E57">
-        <v>2.469054913123125</v>
+        <v>1.723271795704595</v>
       </c>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2">
-        <v>36132</v>
+        <v>37581</v>
       </c>
       <c r="B58">
-        <v>1998</v>
+        <v>2002</v>
       </c>
       <c r="C58">
-        <v>2.833473913903406</v>
+        <v>0.3027105478702108</v>
       </c>
       <c r="D58">
-        <v>1999</v>
+        <v>2003</v>
       </c>
       <c r="E58">
-        <v>2.482507310682891</v>
+        <v>1.495147488490889</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2">
-        <v>36223</v>
+        <v>37678</v>
       </c>
       <c r="B59">
-        <v>1999</v>
+        <v>2003</v>
       </c>
       <c r="C59">
-        <v>1.655287196880928</v>
+        <v>1.101570631429216</v>
       </c>
       <c r="D59">
-        <v>2000</v>
+        <v>2004</v>
       </c>
       <c r="E59">
-        <v>2.390562571520949</v>
+        <v>1.485795576382354</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2">
-        <v>36319</v>
+        <v>37756</v>
       </c>
       <c r="B60">
-        <v>1999</v>
+        <v>2003</v>
       </c>
       <c r="C60">
-        <v>1.481562820846571</v>
+        <v>0.5465690596114792</v>
       </c>
       <c r="D60">
-        <v>2000</v>
+        <v>2004</v>
       </c>
       <c r="E60">
-        <v>2.564763317404561</v>
+        <v>1.336255717893819</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2">
-        <v>36412</v>
+        <v>37847</v>
       </c>
       <c r="B61">
-        <v>1999</v>
+        <v>2003</v>
       </c>
       <c r="C61">
-        <v>0.8861546371220719</v>
+        <v>0.1226244738887772</v>
       </c>
       <c r="D61">
-        <v>2000</v>
+        <v>2004</v>
       </c>
       <c r="E61">
-        <v>2.142429114246314</v>
+        <v>1.273847785608018</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2">
-        <v>36501</v>
+        <v>37938</v>
       </c>
       <c r="B62">
-        <v>1999</v>
+        <v>2003</v>
       </c>
       <c r="C62">
-        <v>1.221733233617339</v>
+        <v>-0.06338401458176879</v>
       </c>
       <c r="D62">
-        <v>2000</v>
+        <v>2004</v>
       </c>
       <c r="E62">
-        <v>2.282946612411263</v>
+        <v>1.186949455574493</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2">
-        <v>36587</v>
+        <v>38029</v>
       </c>
       <c r="B63">
-        <v>2000</v>
+        <v>2004</v>
       </c>
       <c r="C63">
-        <v>2.448320502468238</v>
+        <v>0.995052798292595</v>
       </c>
       <c r="D63">
-        <v>2001</v>
+        <v>2005</v>
       </c>
       <c r="E63">
-        <v>2.309224227556794</v>
+        <v>1.21940334738424</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2">
-        <v>36676</v>
+        <v>38120</v>
       </c>
       <c r="B64">
-        <v>2000</v>
+        <v>2004</v>
       </c>
       <c r="C64">
-        <v>2.564024492763806</v>
+        <v>1.097102853016874</v>
       </c>
       <c r="D64">
-        <v>2001</v>
+        <v>2005</v>
       </c>
       <c r="E64">
-        <v>2.473062944816595</v>
+        <v>1.078165363345507</v>
       </c>
     </row>
     <row r="65" spans="1:5">
       <c r="A65" s="2">
-        <v>36767</v>
+        <v>38211</v>
       </c>
       <c r="B65">
-        <v>2000</v>
+        <v>2004</v>
       </c>
       <c r="C65">
-        <v>3.153099622684863</v>
+        <v>1.34901080838441</v>
       </c>
       <c r="D65">
-        <v>2001</v>
+        <v>2005</v>
       </c>
       <c r="E65">
-        <v>2.621515653474216</v>
+        <v>1.284205480024792</v>
       </c>
     </row>
     <row r="66" spans="1:5">
       <c r="A66" s="2">
-        <v>36858</v>
+        <v>38302</v>
       </c>
       <c r="B66">
-        <v>2000</v>
+        <v>2004</v>
       </c>
       <c r="C66">
-        <v>3.212706544592092</v>
+        <v>1.191718234579842</v>
       </c>
       <c r="D66">
-        <v>2001</v>
+        <v>2005</v>
       </c>
       <c r="E66">
-        <v>2.498927718860466</v>
+        <v>1.166653268907458</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2">
-        <v>36951</v>
+        <v>38398</v>
       </c>
       <c r="B67">
-        <v>2001</v>
+        <v>2005</v>
       </c>
       <c r="C67">
-        <v>1.915232257141031</v>
+        <v>0.5395053573269193</v>
       </c>
       <c r="D67">
-        <v>2002</v>
+        <v>2006</v>
       </c>
       <c r="E67">
-        <v>2.237269708962941</v>
+        <v>1.159652672534639</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2">
-        <v>37034</v>
+        <v>38484</v>
       </c>
       <c r="B68">
-        <v>2001</v>
+        <v>2005</v>
       </c>
       <c r="C68">
-        <v>1.759737107832926</v>
+        <v>1.572397351130328</v>
       </c>
       <c r="D68">
-        <v>2002</v>
+        <v>2006</v>
       </c>
       <c r="E68">
-        <v>2.1823787252363</v>
+        <v>1.582707465349764</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="2">
-        <v>37126</v>
+        <v>38575</v>
       </c>
       <c r="B69">
-        <v>2001</v>
+        <v>2005</v>
       </c>
       <c r="C69">
-        <v>1.200212790305688</v>
+        <v>0.9830139229099144</v>
       </c>
       <c r="D69">
-        <v>2002</v>
+        <v>2006</v>
       </c>
       <c r="E69">
-        <v>1.945361731599915</v>
+        <v>1.422422035968962</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2">
-        <v>37222</v>
+        <v>38671</v>
       </c>
       <c r="B70">
-        <v>2001</v>
+        <v>2005</v>
       </c>
       <c r="C70">
-        <v>0.8718408608820116</v>
+        <v>1.10662279082161</v>
       </c>
       <c r="D70">
-        <v>2002</v>
+        <v>2006</v>
       </c>
       <c r="E70">
-        <v>1.451589658605279</v>
+        <v>1.607604296724396</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="2">
-        <v>37314</v>
+        <v>38762</v>
       </c>
       <c r="B71">
-        <v>2002</v>
+        <v>2006</v>
       </c>
       <c r="C71">
-        <v>0.7448884326621386</v>
+        <v>1.321777562372928</v>
       </c>
       <c r="D71">
-        <v>2003</v>
+        <v>2007</v>
       </c>
       <c r="E71">
-        <v>1.887617486540871</v>
+        <v>1.492576005069335</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="2">
-        <v>37399</v>
+        <v>38848</v>
       </c>
       <c r="B72">
-        <v>2002</v>
+        <v>2006</v>
       </c>
       <c r="C72">
-        <v>0.5027243209395182</v>
+        <v>1.322125352849413</v>
       </c>
       <c r="D72">
-        <v>2003</v>
+        <v>2007</v>
       </c>
       <c r="E72">
-        <v>1.723557921614716</v>
+        <v>1.429193111889671</v>
       </c>
     </row>
     <row r="73" spans="1:5">
       <c r="A73" s="2">
-        <v>37490</v>
+        <v>38943</v>
       </c>
       <c r="B73">
-        <v>2002</v>
+        <v>2006</v>
       </c>
       <c r="C73">
-        <v>0.4808578657098828</v>
+        <v>2.206144542976007</v>
       </c>
       <c r="D73">
-        <v>2003</v>
+        <v>2007</v>
       </c>
       <c r="E73">
-        <v>1.723271795704595</v>
+        <v>1.674846040945321</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="2">
-        <v>37581</v>
+        <v>39035</v>
       </c>
       <c r="B74">
-        <v>2002</v>
+        <v>2006</v>
       </c>
       <c r="C74">
-        <v>0.3027105478702108</v>
+        <v>2.581733062021807</v>
       </c>
       <c r="D74">
-        <v>2003</v>
+        <v>2007</v>
       </c>
       <c r="E74">
-        <v>1.495147488490889</v>
+        <v>1.863208987134324</v>
       </c>
     </row>
     <row r="75" spans="1:5">
       <c r="A75" s="2">
-        <v>37678</v>
+        <v>39126</v>
       </c>
       <c r="B75">
-        <v>2003</v>
+        <v>2007</v>
       </c>
       <c r="C75">
-        <v>1.101570631429216</v>
+        <v>2.416268882941885</v>
       </c>
       <c r="D75">
-        <v>2004</v>
+        <v>2008</v>
       </c>
       <c r="E75">
-        <v>1.485795576382354</v>
+        <v>1.54018541130112</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="2">
-        <v>37756</v>
+        <v>39217</v>
       </c>
       <c r="B76">
-        <v>2003</v>
+        <v>2007</v>
       </c>
       <c r="C76">
-        <v>0.5465690596114792</v>
+        <v>2.644331987985127</v>
       </c>
       <c r="D76">
-        <v>2004</v>
+        <v>2008</v>
       </c>
       <c r="E76">
-        <v>1.336255717893819</v>
+        <v>1.618758147029653</v>
       </c>
     </row>
     <row r="77" spans="1:5">
       <c r="A77" s="2">
-        <v>37847</v>
+        <v>39308</v>
       </c>
       <c r="B77">
-        <v>2003</v>
+        <v>2007</v>
       </c>
       <c r="C77">
-        <v>0.1226244738887772</v>
+        <v>2.463900898486049</v>
       </c>
       <c r="D77">
-        <v>2004</v>
+        <v>2008</v>
       </c>
       <c r="E77">
-        <v>1.273847785608018</v>
+        <v>1.439039865002134</v>
       </c>
     </row>
     <row r="78" spans="1:5">
       <c r="A78" s="2">
-        <v>37938</v>
+        <v>39400</v>
       </c>
       <c r="B78">
-        <v>2003</v>
+        <v>2007</v>
       </c>
       <c r="C78">
-        <v>-0.06338401458176879</v>
+        <v>2.635105211127575</v>
       </c>
       <c r="D78">
-        <v>2004</v>
+        <v>2008</v>
       </c>
       <c r="E78">
-        <v>1.186949455574493</v>
+        <v>1.722015618408701</v>
       </c>
     </row>
     <row r="79" spans="1:5">
       <c r="A79" s="2">
-        <v>38029</v>
+        <v>39492</v>
       </c>
       <c r="B79">
-        <v>2004</v>
+        <v>2008</v>
       </c>
       <c r="C79">
-        <v>0.995052798292595</v>
+        <v>1.585034188191714</v>
       </c>
       <c r="D79">
-        <v>2005</v>
+        <v>2009</v>
       </c>
       <c r="E79">
-        <v>1.21940334738424</v>
+        <v>1.585674960490113</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="2">
-        <v>38120</v>
+        <v>39583</v>
       </c>
       <c r="B80">
-        <v>2004</v>
+        <v>2008</v>
       </c>
       <c r="C80">
-        <v>1.097102853016874</v>
+        <v>2.914742198403797</v>
       </c>
       <c r="D80">
-        <v>2005</v>
+        <v>2009</v>
       </c>
       <c r="E80">
-        <v>1.078165363345507</v>
+        <v>1.949882598369124</v>
       </c>
     </row>
     <row r="81" spans="1:5">
       <c r="A81" s="2">
-        <v>38211</v>
+        <v>39674</v>
       </c>
       <c r="B81">
-        <v>2004</v>
+        <v>2008</v>
       </c>
       <c r="C81">
-        <v>1.34901080838441</v>
+        <v>1.849664159209219</v>
       </c>
       <c r="D81">
-        <v>2005</v>
+        <v>2009</v>
       </c>
       <c r="E81">
-        <v>1.284205480024792</v>
+        <v>1.258622825501221</v>
       </c>
     </row>
     <row r="82" spans="1:5">
       <c r="A82" s="2">
-        <v>38302</v>
+        <v>39765</v>
       </c>
       <c r="B82">
-        <v>2004</v>
+        <v>2008</v>
       </c>
       <c r="C82">
-        <v>1.191718234579842</v>
+        <v>1.485199759936107</v>
       </c>
       <c r="D82">
-        <v>2005</v>
+        <v>2009</v>
       </c>
       <c r="E82">
-        <v>1.166653268907458</v>
+        <v>0.443605991657714</v>
       </c>
     </row>
     <row r="83" spans="1:5">
       <c r="A83" s="2">
-        <v>38398</v>
+        <v>39857</v>
       </c>
       <c r="B83">
-        <v>2005</v>
+        <v>2009</v>
       </c>
       <c r="C83">
-        <v>0.5395053573269193</v>
+        <v>-2.925220177089027</v>
       </c>
       <c r="D83">
-        <v>2006</v>
+        <v>2010</v>
       </c>
       <c r="E83">
-        <v>1.159652672534639</v>
+        <v>0.1087431448965059</v>
       </c>
     </row>
     <row r="84" spans="1:5">
       <c r="A84" s="2">
-        <v>38484</v>
+        <v>39948</v>
       </c>
       <c r="B84">
-        <v>2005</v>
+        <v>2009</v>
       </c>
       <c r="C84">
-        <v>1.572397351130328</v>
+        <v>-10.38912473755519</v>
       </c>
       <c r="D84">
-        <v>2006</v>
+        <v>2010</v>
       </c>
       <c r="E84">
-        <v>1.582707465349764</v>
+        <v>-13.02588630704915</v>
       </c>
     </row>
     <row r="85" spans="1:5">
       <c r="A85" s="2">
-        <v>38575</v>
+        <v>40038</v>
       </c>
       <c r="B85">
-        <v>2005</v>
+        <v>2009</v>
       </c>
       <c r="C85">
-        <v>0.9830139229099144</v>
+        <v>-5.493279456187173</v>
       </c>
       <c r="D85">
-        <v>2006</v>
+        <v>2010</v>
       </c>
       <c r="E85">
-        <v>1.422422035968962</v>
+        <v>0.3099897690161502</v>
       </c>
     </row>
     <row r="86" spans="1:5">
       <c r="A86" s="2">
-        <v>38671</v>
+        <v>40130</v>
       </c>
       <c r="B86">
-        <v>2005</v>
+        <v>2009</v>
       </c>
       <c r="C86">
-        <v>1.10662279082161</v>
+        <v>-4.838386464989386</v>
       </c>
       <c r="D86">
-        <v>2006</v>
+        <v>2010</v>
       </c>
       <c r="E86">
-        <v>1.607604296724396</v>
+        <v>1.556350517939564</v>
       </c>
     </row>
     <row r="87" spans="1:5">
       <c r="A87" s="2">
-        <v>38762</v>
+        <v>40221</v>
       </c>
       <c r="B87">
-        <v>2006</v>
+        <v>2010</v>
       </c>
       <c r="C87">
-        <v>1.321777562372928</v>
+        <v>0.9288791585305711</v>
       </c>
       <c r="D87">
-        <v>2007</v>
+        <v>2011</v>
       </c>
       <c r="E87">
-        <v>1.492576005069335</v>
+        <v>0.8822063211653797</v>
       </c>
     </row>
     <row r="88" spans="1:5">
       <c r="A88" s="2">
-        <v>38848</v>
+        <v>40310</v>
       </c>
       <c r="B88">
-        <v>2006</v>
+        <v>2010</v>
       </c>
       <c r="C88">
-        <v>1.322125352849413</v>
+        <v>1.071809041675276</v>
       </c>
       <c r="D88">
-        <v>2007</v>
+        <v>2011</v>
       </c>
       <c r="E88">
-        <v>1.429193111889671</v>
+        <v>0.8342879232527967</v>
       </c>
     </row>
     <row r="89" spans="1:5">
       <c r="A89" s="2">
-        <v>38943</v>
+        <v>40403</v>
       </c>
       <c r="B89">
-        <v>2006</v>
+        <v>2010</v>
       </c>
       <c r="C89">
-        <v>2.206144542976007</v>
+        <v>3.577564492651675</v>
       </c>
       <c r="D89">
-        <v>2007</v>
+        <v>2011</v>
       </c>
       <c r="E89">
-        <v>1.674846040945321</v>
+        <v>2.731583858664188</v>
       </c>
     </row>
     <row r="90" spans="1:5">
       <c r="A90" s="2">
-        <v>39035</v>
+        <v>40494</v>
       </c>
       <c r="B90">
-        <v>2006</v>
+        <v>2010</v>
       </c>
       <c r="C90">
-        <v>2.581733062021807</v>
+        <v>3.522877896197807</v>
       </c>
       <c r="D90">
-        <v>2007</v>
+        <v>2011</v>
       </c>
       <c r="E90">
-        <v>1.863208987134324</v>
+        <v>2.252953350090348</v>
       </c>
     </row>
     <row r="91" spans="1:5">
       <c r="A91" s="2">
-        <v>39126</v>
+        <v>40589</v>
       </c>
       <c r="B91">
-        <v>2007</v>
+        <v>2011</v>
       </c>
       <c r="C91">
-        <v>2.416268882941885</v>
+        <v>2.021953894754303</v>
       </c>
       <c r="D91">
-        <v>2008</v>
+        <v>2012</v>
       </c>
       <c r="E91">
-        <v>1.54018541130112</v>
+        <v>1.306806877555622</v>
       </c>
     </row>
     <row r="92" spans="1:5">
       <c r="A92" s="2">
-        <v>39217</v>
+        <v>40676</v>
       </c>
       <c r="B92">
-        <v>2007</v>
+        <v>2011</v>
       </c>
       <c r="C92">
-        <v>2.644331987985127</v>
+        <v>3.720096369677184</v>
       </c>
       <c r="D92">
-        <v>2008</v>
+        <v>2012</v>
       </c>
       <c r="E92">
-        <v>1.618758147029653</v>
+        <v>1.686787594525496</v>
       </c>
     </row>
     <row r="93" spans="1:5">
       <c r="A93" s="2">
-        <v>39308</v>
+        <v>40771</v>
       </c>
       <c r="B93">
-        <v>2007</v>
+        <v>2011</v>
       </c>
       <c r="C93">
-        <v>2.463900898486049</v>
+        <v>2.851982935378228</v>
       </c>
       <c r="D93">
-        <v>2008</v>
+        <v>2012</v>
       </c>
       <c r="E93">
-        <v>1.439039865002134</v>
+        <v>1.136030550102829</v>
       </c>
     </row>
     <row r="94" spans="1:5">
       <c r="A94" s="2">
-        <v>39400</v>
+        <v>40862</v>
       </c>
       <c r="B94">
-        <v>2007</v>
+        <v>2011</v>
       </c>
       <c r="C94">
-        <v>2.635105211127575</v>
+        <v>3.172593145981373</v>
       </c>
       <c r="D94">
-        <v>2008</v>
+        <v>2012</v>
       </c>
       <c r="E94">
-        <v>1.722015618408701</v>
+        <v>1.460171959067247</v>
       </c>
     </row>
     <row r="95" spans="1:5">
       <c r="A95" s="2">
-        <v>39492</v>
+        <v>40954</v>
       </c>
       <c r="B95">
-        <v>2008</v>
+        <v>2012</v>
       </c>
       <c r="C95">
-        <v>1.585034188191714</v>
+        <v>0.613364121638349</v>
       </c>
       <c r="D95">
-        <v>2009</v>
+        <v>2013</v>
       </c>
       <c r="E95">
-        <v>1.585674960490113</v>
+        <v>1.081133053453542</v>
       </c>
     </row>
     <row r="96" spans="1:5">
       <c r="A96" s="2">
-        <v>39583</v>
+        <v>41044</v>
       </c>
       <c r="B96">
-        <v>2008</v>
+        <v>2012</v>
       </c>
       <c r="C96">
-        <v>2.914742198403797</v>
+        <v>1.276650241283095</v>
       </c>
       <c r="D96">
-        <v>2009</v>
+        <v>2013</v>
       </c>
       <c r="E96">
-        <v>1.949882598369124</v>
+        <v>1.19633550657503</v>
       </c>
     </row>
     <row r="97" spans="1:5">
       <c r="A97" s="2">
-        <v>39674</v>
+        <v>41135</v>
       </c>
       <c r="B97">
-        <v>2008</v>
+        <v>2012</v>
       </c>
       <c r="C97">
-        <v>1.849664159209219</v>
+        <v>1.086563863520862</v>
       </c>
       <c r="D97">
-        <v>2009</v>
+        <v>2013</v>
       </c>
       <c r="E97">
-        <v>1.258622825501221</v>
+        <v>1.06457164149647</v>
       </c>
     </row>
     <row r="98" spans="1:5">
       <c r="A98" s="2">
-        <v>39765</v>
+        <v>41228</v>
       </c>
       <c r="B98">
-        <v>2008</v>
+        <v>2012</v>
       </c>
       <c r="C98">
-        <v>1.485199759936107</v>
+        <v>1.075749333634834</v>
       </c>
       <c r="D98">
-        <v>2009</v>
+        <v>2013</v>
       </c>
       <c r="E98">
-        <v>0.443605991657714</v>
+        <v>1.106002658655192</v>
       </c>
     </row>
     <row r="99" spans="1:5">
       <c r="A99" s="2">
-        <v>39857</v>
+        <v>41319</v>
       </c>
       <c r="B99">
-        <v>2009</v>
+        <v>2013</v>
       </c>
       <c r="C99">
-        <v>-2.925220177089027</v>
+        <v>-0.1408840671955125</v>
       </c>
       <c r="D99">
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="E99">
-        <v>0.1087431448965059</v>
+        <v>0.9790721284826276</v>
       </c>
     </row>
     <row r="100" spans="1:5">
       <c r="A100" s="2">
-        <v>39948</v>
+        <v>41409</v>
       </c>
       <c r="B100">
-        <v>2009</v>
+        <v>2013</v>
       </c>
       <c r="C100">
-        <v>-10.38912473755519</v>
+        <v>-0.03137857138646449</v>
       </c>
       <c r="D100">
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="E100">
-        <v>-13.02588630704915</v>
+        <v>0.8494291553396094</v>
       </c>
     </row>
     <row r="101" spans="1:5">
       <c r="A101" s="2">
-        <v>40038</v>
+        <v>41500</v>
       </c>
       <c r="B101">
-        <v>2009</v>
+        <v>2013</v>
       </c>
       <c r="C101">
-        <v>-5.493279456187173</v>
+        <v>0.6094282583182231</v>
       </c>
       <c r="D101">
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="E101">
-        <v>0.3099897690161502</v>
+        <v>1.440500538214629</v>
       </c>
     </row>
     <row r="102" spans="1:5">
       <c r="A102" s="2">
-        <v>40130</v>
+        <v>41592</v>
       </c>
       <c r="B102">
-        <v>2009</v>
+        <v>2013</v>
       </c>
       <c r="C102">
-        <v>-4.838386464989386</v>
+        <v>0.5135943516859198</v>
       </c>
       <c r="D102">
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="E102">
-        <v>1.556350517939564</v>
+        <v>1.304915753449687</v>
       </c>
     </row>
     <row r="103" spans="1:5">
       <c r="A103" s="2">
-        <v>40221</v>
+        <v>41684</v>
       </c>
       <c r="B103">
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="C103">
-        <v>0.9288791585305711</v>
+        <v>1.408749482567595</v>
       </c>
       <c r="D103">
-        <v>2011</v>
+        <v>2015</v>
       </c>
       <c r="E103">
-        <v>0.8822063211653797</v>
+        <v>1.146596633558361</v>
       </c>
     </row>
     <row r="104" spans="1:5">
       <c r="A104" s="2">
-        <v>40310</v>
+        <v>41774</v>
       </c>
       <c r="B104">
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="C104">
-        <v>1.071809041675276</v>
+        <v>2.183348446776856</v>
       </c>
       <c r="D104">
-        <v>2011</v>
+        <v>2015</v>
       </c>
       <c r="E104">
-        <v>0.8342879232527967</v>
+        <v>1.476241482808471</v>
       </c>
     </row>
     <row r="105" spans="1:5">
       <c r="A105" s="2">
-        <v>40403</v>
+        <v>41865</v>
       </c>
       <c r="B105">
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="C105">
-        <v>3.577564492651675</v>
+        <v>1.308305381840369</v>
       </c>
       <c r="D105">
-        <v>2011</v>
+        <v>2015</v>
       </c>
       <c r="E105">
-        <v>2.731583858664188</v>
+        <v>0.726330085526028</v>
       </c>
     </row>
     <row r="106" spans="1:5">
       <c r="A106" s="2">
-        <v>40494</v>
+        <v>41957</v>
       </c>
       <c r="B106">
-        <v>2010</v>
+        <v>2014</v>
       </c>
       <c r="C106">
-        <v>3.522877896197807</v>
+        <v>1.463603839062211</v>
       </c>
       <c r="D106">
-        <v>2011</v>
+        <v>2015</v>
       </c>
       <c r="E106">
-        <v>2.252953350090348</v>
+        <v>0.7345358670387547</v>
       </c>
     </row>
     <row r="107" spans="1:5">
       <c r="A107" s="2">
-        <v>40589</v>
+        <v>42048</v>
       </c>
       <c r="B107">
-        <v>2011</v>
+        <v>2015</v>
       </c>
       <c r="C107">
-        <v>2.021953894754303</v>
+        <v>1.555506802213324</v>
       </c>
       <c r="D107">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="E107">
-        <v>1.306806877555622</v>
+        <v>1.247251478420663</v>
       </c>
     </row>
     <row r="108" spans="1:5">
       <c r="A108" s="2">
-        <v>40676</v>
+        <v>42137</v>
       </c>
       <c r="B108">
-        <v>2011</v>
+        <v>2015</v>
       </c>
       <c r="C108">
-        <v>3.720096369677184</v>
+        <v>1.291204709804039</v>
       </c>
       <c r="D108">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="E108">
-        <v>1.686787594525496</v>
+        <v>1.334784545494694</v>
       </c>
     </row>
     <row r="109" spans="1:5">
       <c r="A109" s="2">
-        <v>40771</v>
+        <v>42230</v>
       </c>
       <c r="B109">
-        <v>2011</v>
+        <v>2015</v>
       </c>
       <c r="C109">
-        <v>2.851982935378228</v>
+        <v>1.503879794234519</v>
       </c>
       <c r="D109">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="E109">
-        <v>1.136030550102829</v>
+        <v>1.427154289074717</v>
       </c>
     </row>
     <row r="110" spans="1:5">
       <c r="A110" s="2">
-        <v>40862</v>
+        <v>42321</v>
       </c>
       <c r="B110">
-        <v>2011</v>
+        <v>2015</v>
       </c>
       <c r="C110">
-        <v>3.172593145981373</v>
+        <v>1.460561192715071</v>
       </c>
       <c r="D110">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="E110">
-        <v>1.460171959067247</v>
+        <v>1.316306168565684</v>
       </c>
     </row>
     <row r="111" spans="1:5">
       <c r="A111" s="2">
-        <v>40954</v>
+        <v>42412</v>
       </c>
       <c r="B111">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="C111">
-        <v>0.613364121638349</v>
+        <v>1.211140135558786</v>
       </c>
       <c r="D111">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="E111">
-        <v>1.081133053453542</v>
+        <v>1.281269266985707</v>
       </c>
     </row>
     <row r="112" spans="1:5">
       <c r="A112" s="2">
-        <v>41044</v>
+        <v>42503</v>
       </c>
       <c r="B112">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="C112">
-        <v>1.276650241283095</v>
+        <v>1.789277221144991</v>
       </c>
       <c r="D112">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="E112">
-        <v>1.19633550657503</v>
+        <v>1.517762585655458</v>
       </c>
     </row>
     <row r="113" spans="1:5">
       <c r="A113" s="2">
-        <v>41135</v>
+        <v>42594</v>
       </c>
       <c r="B113">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="C113">
-        <v>1.086563863520862</v>
+        <v>1.831409032854858</v>
       </c>
       <c r="D113">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="E113">
-        <v>1.06457164149647</v>
+        <v>1.455762792597137</v>
       </c>
     </row>
     <row r="114" spans="1:5">
       <c r="A114" s="2">
-        <v>41228</v>
+        <v>42689</v>
       </c>
       <c r="B114">
-        <v>2012</v>
+        <v>2016</v>
       </c>
       <c r="C114">
-        <v>1.075749333634834</v>
+        <v>1.71486702353103</v>
       </c>
       <c r="D114">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="E114">
-        <v>1.106002658655192</v>
+        <v>1.271337706785514</v>
       </c>
     </row>
     <row r="115" spans="1:5">
       <c r="A115" s="2">
-        <v>41319</v>
+        <v>42780</v>
       </c>
       <c r="B115">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="C115">
-        <v>-0.1408840671955125</v>
+        <v>1.469790059051301</v>
       </c>
       <c r="D115">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="E115">
-        <v>0.9790721284826276</v>
+        <v>1.488538737086698</v>
       </c>
     </row>
     <row r="116" spans="1:5">
       <c r="A116" s="2">
-        <v>41409</v>
+        <v>42867</v>
       </c>
       <c r="B116">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="C116">
-        <v>-0.03137857138646449</v>
+        <v>1.816297695264346</v>
       </c>
       <c r="D116">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="E116">
-        <v>0.8494291553396094</v>
+        <v>1.651160881705249</v>
       </c>
     </row>
     <row r="117" spans="1:5">
       <c r="A117" s="2">
-        <v>41500</v>
+        <v>42962</v>
       </c>
       <c r="B117">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="C117">
-        <v>0.6094282583182231</v>
+        <v>2.141958087655205</v>
       </c>
       <c r="D117">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="E117">
-        <v>1.440500538214629</v>
+        <v>1.746314025496809</v>
       </c>
     </row>
     <row r="118" spans="1:5">
       <c r="A118" s="2">
-        <v>41592</v>
+        <v>43053</v>
       </c>
       <c r="B118">
-        <v>2013</v>
+        <v>2017</v>
       </c>
       <c r="C118">
-        <v>0.5135943516859198</v>
+        <v>2.54573700790961</v>
       </c>
       <c r="D118">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="E118">
-        <v>1.304915753449687</v>
+        <v>2.15356679889549</v>
       </c>
     </row>
     <row r="119" spans="1:5">
       <c r="A119" s="2">
-        <v>41684</v>
+        <v>43145</v>
       </c>
       <c r="B119">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="C119">
-        <v>1.408749482567595</v>
+        <v>2.145682023461037</v>
       </c>
       <c r="D119">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="E119">
-        <v>1.146596633558361</v>
+        <v>1.655594237651448</v>
       </c>
     </row>
     <row r="120" spans="1:5">
       <c r="A120" s="2">
-        <v>41774</v>
+        <v>43235</v>
       </c>
       <c r="B120">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="C120">
-        <v>2.183348446776856</v>
+        <v>1.814946630842762</v>
       </c>
       <c r="D120">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="E120">
-        <v>1.476241482808471</v>
+        <v>1.477668145972499</v>
       </c>
     </row>
     <row r="121" spans="1:5">
       <c r="A121" s="2">
-        <v>41865</v>
+        <v>43326</v>
       </c>
       <c r="B121">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="C121">
-        <v>1.308305381840369</v>
+        <v>1.833917811424923</v>
       </c>
       <c r="D121">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="E121">
-        <v>0.726330085526028</v>
+        <v>1.482713323460105</v>
       </c>
     </row>
     <row r="122" spans="1:5">
       <c r="A122" s="2">
-        <v>41957</v>
+        <v>43418</v>
       </c>
       <c r="B122">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="C122">
-        <v>1.463603839062211</v>
+        <v>1.467563812511452</v>
       </c>
       <c r="D122">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="E122">
-        <v>0.7345358670387547</v>
+        <v>0.7694605565311097</v>
       </c>
     </row>
     <row r="123" spans="1:5">
       <c r="A123" s="2">
-        <v>42048</v>
+        <v>43510</v>
       </c>
       <c r="B123">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="C123">
-        <v>1.555506802213324</v>
+        <v>0.6144150995606168</v>
       </c>
       <c r="D123">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="E123">
-        <v>1.247251478420663</v>
+        <v>1.17005815250153</v>
       </c>
     </row>
     <row r="124" spans="1:5">
       <c r="A124" s="2">
-        <v>42137</v>
+        <v>43600</v>
       </c>
       <c r="B124">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="C124">
-        <v>1.291204709804039</v>
+        <v>0.9755302942728195</v>
       </c>
       <c r="D124">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="E124">
-        <v>1.334784545494694</v>
+        <v>1.308311503751969</v>
       </c>
     </row>
     <row r="125" spans="1:5">
       <c r="A125" s="2">
-        <v>42230</v>
+        <v>43691</v>
       </c>
       <c r="B125">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="C125">
-        <v>1.503879794234519</v>
+        <v>0.6763657625222574</v>
       </c>
       <c r="D125">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="E125">
-        <v>1.427154289074717</v>
+        <v>0.9449343475431693</v>
       </c>
     </row>
     <row r="126" spans="1:5">
       <c r="A126" s="2">
-        <v>42321</v>
+        <v>43783</v>
       </c>
       <c r="B126">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="C126">
-        <v>1.460561192715071</v>
+        <v>0.573813583266336</v>
       </c>
       <c r="D126">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="E126">
-        <v>1.316306168565684</v>
+        <v>0.7682770484317203</v>
       </c>
     </row>
     <row r="127" spans="1:5">
       <c r="A127" s="2">
-        <v>42412</v>
+        <v>43875</v>
       </c>
       <c r="B127">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="C127">
-        <v>1.211140135558786</v>
+        <v>0.6190211190723716</v>
       </c>
       <c r="D127">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="E127">
-        <v>1.281269266985707</v>
+        <v>1.084641646955609</v>
       </c>
     </row>
     <row r="128" spans="1:5">
       <c r="A128" s="2">
-        <v>42503</v>
+        <v>43966</v>
       </c>
       <c r="B128">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="C128">
-        <v>1.789277221144991</v>
+        <v>-2.88765784846251</v>
       </c>
       <c r="D128">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="E128">
-        <v>1.517762585655458</v>
+        <v>-0.08203399280549695</v>
       </c>
     </row>
     <row r="129" spans="1:5">
       <c r="A129" s="2">
-        <v>42594</v>
+        <v>44068</v>
       </c>
       <c r="B129">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="C129">
-        <v>1.831409032854858</v>
+        <v>-13.62257802198732</v>
       </c>
       <c r="D129">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="E129">
-        <v>1.455762792597137</v>
+        <v>-18.77753932536402</v>
       </c>
     </row>
     <row r="130" spans="1:5">
       <c r="A130" s="2">
-        <v>42689</v>
+        <v>44159</v>
       </c>
       <c r="B130">
-        <v>2016</v>
+        <v>2020</v>
       </c>
       <c r="C130">
-        <v>1.71486702353103</v>
+        <v>-6.332038390823524</v>
       </c>
       <c r="D130">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="E130">
-        <v>1.271337706785514</v>
+        <v>0.4447691747926807</v>
       </c>
     </row>
     <row r="131" spans="1:5">
       <c r="A131" s="2">
-        <v>42780</v>
+        <v>44251</v>
       </c>
       <c r="B131">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="C131">
-        <v>1.469790059051301</v>
+        <v>1.393690305272322</v>
       </c>
       <c r="D131">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="E131">
-        <v>1.488538737086698</v>
+        <v>0.9993666180888372</v>
       </c>
     </row>
     <row r="132" spans="1:5">
       <c r="A132" s="2">
-        <v>42867</v>
+        <v>44341</v>
       </c>
       <c r="B132">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="C132">
-        <v>1.816297695264346</v>
+        <v>1.10051964147142</v>
       </c>
       <c r="D132">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="E132">
-        <v>1.651160881705249</v>
+        <v>1.367775147972683</v>
       </c>
     </row>
     <row r="133" spans="1:5">
       <c r="A133" s="2">
-        <v>42962</v>
+        <v>44432</v>
       </c>
       <c r="B133">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="C133">
-        <v>2.141958087655205</v>
+        <v>1.596719456215823</v>
       </c>
       <c r="D133">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="E133">
-        <v>1.746314025496809</v>
+        <v>1.64009848016855</v>
       </c>
     </row>
     <row r="134" spans="1:5">
       <c r="A134" s="2">
-        <v>43053</v>
+        <v>44525</v>
       </c>
       <c r="B134">
-        <v>2017</v>
+        <v>2021</v>
       </c>
       <c r="C134">
-        <v>2.54573700790961</v>
+        <v>2.50078376310503</v>
       </c>
       <c r="D134">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="E134">
-        <v>2.15356679889549</v>
+        <v>2.02294041918627</v>
       </c>
     </row>
     <row r="135" spans="1:5">
       <c r="A135" s="2">
-        <v>43145</v>
+        <v>44617</v>
       </c>
       <c r="B135">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="C135">
-        <v>2.145682023461037</v>
+        <v>2.171220559958353</v>
       </c>
       <c r="D135">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="E135">
-        <v>1.655594237651448</v>
+        <v>1.622870635453788</v>
       </c>
     </row>
     <row r="136" spans="1:5">
       <c r="A136" s="2">
-        <v>43235</v>
+        <v>44706</v>
       </c>
       <c r="B136">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="C136">
-        <v>1.814946630842762</v>
+        <v>2.093637744778643</v>
       </c>
       <c r="D136">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="E136">
-        <v>1.477668145972499</v>
+        <v>1.595534183633029</v>
       </c>
     </row>
     <row r="137" spans="1:5">
       <c r="A137" s="2">
-        <v>43326</v>
+        <v>44798</v>
       </c>
       <c r="B137">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="C137">
-        <v>1.833917811424923</v>
+        <v>2.047503765332293</v>
       </c>
       <c r="D137">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="E137">
-        <v>1.482713323460105</v>
+        <v>1.450008929318436</v>
       </c>
     </row>
     <row r="138" spans="1:5">
       <c r="A138" s="2">
-        <v>43418</v>
+        <v>44890</v>
       </c>
       <c r="B138">
-        <v>2018</v>
+        <v>2022</v>
       </c>
       <c r="C138">
-        <v>1.467563812511452</v>
+        <v>2.036925251458377</v>
       </c>
       <c r="D138">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="E138">
-        <v>0.7694605565311097</v>
+        <v>1.390457834055581</v>
       </c>
     </row>
     <row r="139" spans="1:5">
       <c r="A139" s="2">
-        <v>43510</v>
+        <v>44981</v>
       </c>
       <c r="B139">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="C139">
-        <v>0.6144150995606168</v>
+        <v>1.094238427434013</v>
       </c>
       <c r="D139">
-        <v>2020</v>
+        <v>2024</v>
       </c>
       <c r="E139">
-        <v>1.17005815250153</v>
+        <v>1.321355059964002</v>
       </c>
     </row>
     <row r="140" spans="1:5">
       <c r="A140" s="2">
-        <v>43600</v>
+        <v>45071</v>
       </c>
       <c r="B140">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="C140">
-        <v>0.9755302942728195</v>
+        <v>0.2704008632326893</v>
       </c>
       <c r="D140">
-        <v>2020</v>
+        <v>2024</v>
       </c>
       <c r="E140">
-        <v>1.308311503751969</v>
+        <v>1.264914507337878</v>
       </c>
     </row>
     <row r="141" spans="1:5">
       <c r="A141" s="2">
-        <v>43691</v>
+        <v>45163</v>
       </c>
       <c r="B141">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="C141">
-        <v>0.6763657625222574</v>
+        <v>0.0973275205688573</v>
       </c>
       <c r="D141">
-        <v>2020</v>
+        <v>2024</v>
       </c>
       <c r="E141">
-        <v>0.9449343475431693</v>
+        <v>1.155931536963561</v>
       </c>
     </row>
     <row r="142" spans="1:5">
       <c r="A142" s="2">
-        <v>43783</v>
+        <v>45254</v>
       </c>
       <c r="B142">
-        <v>2019</v>
+        <v>2023</v>
       </c>
       <c r="C142">
-        <v>0.573813583266336</v>
+        <v>0.006976824310989116</v>
       </c>
       <c r="D142">
-        <v>2020</v>
+        <v>2024</v>
       </c>
       <c r="E142">
-        <v>0.7682770484317203</v>
+        <v>1.013493932837783</v>
       </c>
     </row>
     <row r="143" spans="1:5">
       <c r="A143" s="2">
-        <v>43875</v>
+        <v>45345</v>
       </c>
       <c r="B143">
-        <v>2020</v>
+        <v>2024</v>
       </c>
       <c r="C143">
-        <v>0.6190211190723716</v>
+        <v>0.777040352969971</v>
       </c>
       <c r="D143">
-        <v>2021</v>
+        <v>2025</v>
       </c>
       <c r="E143">
-        <v>1.084641646955609</v>
+        <v>1.068175595509357</v>
       </c>
     </row>
     <row r="144" spans="1:5">
       <c r="A144" s="2">
-        <v>43966</v>
+        <v>45436</v>
       </c>
       <c r="B144">
-        <v>2020</v>
+        <v>2024</v>
       </c>
       <c r="C144">
-        <v>-2.88765784846251</v>
+        <v>0.4339626597083202</v>
       </c>
       <c r="D144">
-        <v>2021</v>
+        <v>2025</v>
       </c>
       <c r="E144">
-        <v>-0.08203399280549695</v>
+        <v>1.098925859512323</v>
       </c>
     </row>
     <row r="145" spans="1:5">
       <c r="A145" s="2">
-        <v>44068</v>
+        <v>45534</v>
       </c>
       <c r="B145">
-        <v>2020</v>
+        <v>2024</v>
       </c>
       <c r="C145">
-        <v>-13.62257802198732</v>
+        <v>0.233555755601067</v>
       </c>
       <c r="D145">
-        <v>2021</v>
+        <v>2025</v>
       </c>
       <c r="E145">
-        <v>-18.77753932536402</v>
+        <v>1.030082119929365</v>
       </c>
     </row>
     <row r="146" spans="1:5">
       <c r="A146" s="2">
-        <v>44159</v>
+        <v>45618</v>
       </c>
       <c r="B146">
-        <v>2020</v>
+        <v>2024</v>
       </c>
       <c r="C146">
-        <v>-6.332038390823524</v>
+        <v>-0.03686848375263896</v>
       </c>
       <c r="D146">
-        <v>2021</v>
+        <v>2025</v>
       </c>
       <c r="E146">
-        <v>0.4447691747926807</v>
+        <v>0.9237465935730382</v>
       </c>
     </row>
     <row r="147" spans="1:5">
       <c r="A147" s="2">
-        <v>44251</v>
+        <v>45713</v>
       </c>
       <c r="B147">
-        <v>2021</v>
+        <v>2025</v>
       </c>
       <c r="C147">
-        <v>1.393690305272322</v>
+        <v>0.6896020733472286</v>
       </c>
       <c r="D147">
-        <v>2022</v>
+        <v>2026</v>
       </c>
       <c r="E147">
-        <v>0.9993666180888372</v>
+        <v>1.025816580054362</v>
       </c>
     </row>
     <row r="148" spans="1:5">
       <c r="A148" s="2">
-        <v>44341</v>
+        <v>45800</v>
       </c>
       <c r="B148">
-        <v>2021</v>
+        <v>2025</v>
       </c>
       <c r="C148">
-        <v>1.10051964147142</v>
+        <v>0.6712205726778775</v>
       </c>
       <c r="D148">
-        <v>2022</v>
+        <v>2026</v>
       </c>
       <c r="E148">
-        <v>1.367775147972683</v>
-      </c>
-    </row>
-    <row r="149" spans="1:5">
-      <c r="A149" s="2">
-        <v>44432</v>
-      </c>
-      <c r="B149">
-        <v>2021</v>
-      </c>
-      <c r="C149">
-        <v>1.596719456215823</v>
-      </c>
-      <c r="D149">
-        <v>2022</v>
-      </c>
-      <c r="E149">
-        <v>1.64009848016855</v>
-      </c>
-    </row>
-    <row r="150" spans="1:5">
-      <c r="A150" s="2">
-        <v>44525</v>
-      </c>
-      <c r="B150">
-        <v>2021</v>
-      </c>
-      <c r="C150">
-        <v>2.50078376310503</v>
-      </c>
-      <c r="D150">
-        <v>2022</v>
-      </c>
-      <c r="E150">
-        <v>2.02294041918627</v>
-      </c>
-    </row>
-    <row r="151" spans="1:5">
-      <c r="A151" s="2">
-        <v>44617</v>
-      </c>
-      <c r="B151">
-        <v>2022</v>
-      </c>
-      <c r="C151">
-        <v>2.171220559958353</v>
-      </c>
-      <c r="D151">
-        <v>2023</v>
-      </c>
-      <c r="E151">
-        <v>1.622870635453788</v>
-      </c>
-    </row>
-    <row r="152" spans="1:5">
-      <c r="A152" s="2">
-        <v>44706</v>
-      </c>
-      <c r="B152">
-        <v>2022</v>
-      </c>
-      <c r="C152">
-        <v>2.093637744778643</v>
-      </c>
-      <c r="D152">
-        <v>2023</v>
-      </c>
-      <c r="E152">
-        <v>1.595534183633029</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5">
-      <c r="A153" s="2">
-        <v>44798</v>
-      </c>
-      <c r="B153">
-        <v>2022</v>
-      </c>
-      <c r="C153">
-        <v>2.047503765332293</v>
-      </c>
-      <c r="D153">
-        <v>2023</v>
-      </c>
-      <c r="E153">
-        <v>1.450008929318436</v>
-      </c>
-    </row>
-    <row r="154" spans="1:5">
-      <c r="A154" s="2">
-        <v>44890</v>
-      </c>
-      <c r="B154">
-        <v>2022</v>
-      </c>
-      <c r="C154">
-        <v>2.036925251458377</v>
-      </c>
-      <c r="D154">
-        <v>2023</v>
-      </c>
-      <c r="E154">
-        <v>1.390457834055581</v>
-      </c>
-    </row>
-    <row r="155" spans="1:5">
-      <c r="A155" s="2">
-        <v>44981</v>
-      </c>
-      <c r="B155">
-        <v>2023</v>
-      </c>
-      <c r="C155">
-        <v>1.094238427434013</v>
-      </c>
-      <c r="D155">
-        <v>2024</v>
-      </c>
-      <c r="E155">
-        <v>1.321355059964002</v>
-      </c>
-    </row>
-    <row r="156" spans="1:5">
-      <c r="A156" s="2">
-        <v>45071</v>
-      </c>
-      <c r="B156">
-        <v>2023</v>
-      </c>
-      <c r="C156">
-        <v>0.2704008632326893</v>
-      </c>
-      <c r="D156">
-        <v>2024</v>
-      </c>
-      <c r="E156">
-        <v>1.264914507337878</v>
-      </c>
-    </row>
-    <row r="157" spans="1:5">
-      <c r="A157" s="2">
-        <v>45163</v>
-      </c>
-      <c r="B157">
-        <v>2023</v>
-      </c>
-      <c r="C157">
-        <v>0.0973275205688573</v>
-      </c>
-      <c r="D157">
-        <v>2024</v>
-      </c>
-      <c r="E157">
-        <v>1.155931536963561</v>
-      </c>
-    </row>
-    <row r="158" spans="1:5">
-      <c r="A158" s="2">
-        <v>45254</v>
-      </c>
-      <c r="B158">
-        <v>2023</v>
-      </c>
-      <c r="C158">
-        <v>0.006976824310989116</v>
-      </c>
-      <c r="D158">
-        <v>2024</v>
-      </c>
-      <c r="E158">
-        <v>1.013493932837783</v>
-      </c>
-    </row>
-    <row r="159" spans="1:5">
-      <c r="A159" s="2">
-        <v>45345</v>
-      </c>
-      <c r="B159">
-        <v>2024</v>
-      </c>
-      <c r="C159">
-        <v>0.777040352969971</v>
-      </c>
-      <c r="D159">
-        <v>2025</v>
-      </c>
-      <c r="E159">
-        <v>1.068175595509357</v>
-      </c>
-    </row>
-    <row r="160" spans="1:5">
-      <c r="A160" s="2">
-        <v>45436</v>
-      </c>
-      <c r="B160">
-        <v>2024</v>
-      </c>
-      <c r="C160">
-        <v>0.4339626597083202</v>
-      </c>
-      <c r="D160">
-        <v>2025</v>
-      </c>
-      <c r="E160">
-        <v>1.098925859512323</v>
-      </c>
-    </row>
-    <row r="161" spans="1:5">
-      <c r="A161" s="2">
-        <v>45534</v>
-      </c>
-      <c r="B161">
-        <v>2024</v>
-      </c>
-      <c r="C161">
-        <v>0.233555755601067</v>
-      </c>
-      <c r="D161">
-        <v>2025</v>
-      </c>
-      <c r="E161">
-        <v>1.030082119929365</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5">
-      <c r="A162" s="2">
-        <v>45618</v>
-      </c>
-      <c r="B162">
-        <v>2024</v>
-      </c>
-      <c r="C162">
-        <v>-0.03686848375263896</v>
-      </c>
-      <c r="D162">
-        <v>2025</v>
-      </c>
-      <c r="E162">
-        <v>0.9237465935730382</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5">
-      <c r="A163" s="2">
-        <v>45713</v>
-      </c>
-      <c r="B163">
-        <v>2025</v>
-      </c>
-      <c r="C163">
-        <v>0.6896020733472286</v>
-      </c>
-      <c r="D163">
-        <v>2026</v>
-      </c>
-      <c r="E163">
-        <v>1.025816580054362</v>
-      </c>
-    </row>
-    <row r="164" spans="1:5">
-      <c r="A164" s="2">
-        <v>45800</v>
-      </c>
-      <c r="B164">
-        <v>2025</v>
-      </c>
-      <c r="C164">
-        <v>0.6712205726778775</v>
-      </c>
-      <c r="D164">
-        <v>2026</v>
-      </c>
-      <c r="E164">
         <v>1.081926859399074</v>
       </c>
     </row>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_yoy_AR2_50_9_full.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_yoy_AR2_50_9_full.xlsx
@@ -392,7 +392,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E149"/>
+  <dimension ref="A1:E150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2931,6 +2931,23 @@
         <v>0.9694102959983519</v>
       </c>
     </row>
+    <row r="150" spans="1:5">
+      <c r="A150" s="2">
+        <v>45986</v>
+      </c>
+      <c r="B150">
+        <v>2025</v>
+      </c>
+      <c r="C150">
+        <v>0.3398512689293476</v>
+      </c>
+      <c r="D150">
+        <v>2026</v>
+      </c>
+      <c r="E150">
+        <v>0.8571438361188566</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_yoy_AR2_50_9_full.xlsx
+++ b/0_0_Data/3_Naive_Forecaster_Data/1_YoY_Forecast_Vectors/forecast_series_yoy_AR2_50_9_full.xlsx
@@ -423,13 +423,13 @@
         <v>1988</v>
       </c>
       <c r="C2">
-        <v>3.194969449935003</v>
+        <v>3.123541145015474</v>
       </c>
       <c r="D2">
         <v>1989</v>
       </c>
       <c r="E2">
-        <v>2.654510774528207</v>
+        <v>2.651224325850143</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -440,13 +440,13 @@
         <v>1989</v>
       </c>
       <c r="C3">
-        <v>3.078003875303725</v>
+        <v>3.395286202166914</v>
       </c>
       <c r="D3">
         <v>1990</v>
       </c>
       <c r="E3">
-        <v>2.234699437753784</v>
+        <v>2.178917254585566</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -457,13 +457,13 @@
         <v>1989</v>
       </c>
       <c r="C4">
-        <v>3.661580277249166</v>
+        <v>3.845168516212527</v>
       </c>
       <c r="D4">
         <v>1990</v>
       </c>
       <c r="E4">
-        <v>2.193258610001214</v>
+        <v>2.271247526478293</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -474,13 +474,13 @@
         <v>1989</v>
       </c>
       <c r="C5">
-        <v>3.6938275965265</v>
+        <v>3.868712763200066</v>
       </c>
       <c r="D5">
         <v>1990</v>
       </c>
       <c r="E5">
-        <v>2.191051164767877</v>
+        <v>2.279830183911025</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -491,13 +491,13 @@
         <v>1989</v>
       </c>
       <c r="C6">
-        <v>3.85009945173751</v>
+        <v>3.959010658874851</v>
       </c>
       <c r="D6">
         <v>1990</v>
       </c>
       <c r="E6">
-        <v>2.342799083309055</v>
+        <v>2.48038747547068</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -508,13 +508,13 @@
         <v>1990</v>
       </c>
       <c r="C7">
-        <v>2.666162325285693</v>
+        <v>3.038488305380094</v>
       </c>
       <c r="D7">
         <v>1991</v>
       </c>
       <c r="E7">
-        <v>2.26485329164865</v>
+        <v>2.218383008196989</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -525,13 +525,13 @@
         <v>1990</v>
       </c>
       <c r="C8">
-        <v>4.130619852766437</v>
+        <v>4.156138964540079</v>
       </c>
       <c r="D8">
         <v>1991</v>
       </c>
       <c r="E8">
-        <v>2.272904440822465</v>
+        <v>2.54816413516763</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -542,13 +542,13 @@
         <v>1990</v>
       </c>
       <c r="C9">
-        <v>4.360305978402312</v>
+        <v>4.314374175018698</v>
       </c>
       <c r="D9">
         <v>1991</v>
       </c>
       <c r="E9">
-        <v>2.354203638264551</v>
+        <v>2.691262599793376</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -559,13 +559,13 @@
         <v>1990</v>
       </c>
       <c r="C10">
-        <v>5.073362306219398</v>
+        <v>4.722695063536686</v>
       </c>
       <c r="D10">
         <v>1991</v>
       </c>
       <c r="E10">
-        <v>2.977303796668029</v>
+        <v>3.580489688170352</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -576,13 +576,13 @@
         <v>1991</v>
       </c>
       <c r="C11">
-        <v>3.912848990577067</v>
+        <v>4.978565227058129</v>
       </c>
       <c r="D11">
         <v>1992</v>
       </c>
       <c r="E11">
-        <v>2.519901525122537</v>
+        <v>2.47648278916528</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -593,13 +593,13 @@
         <v>1991</v>
       </c>
       <c r="C12">
-        <v>6.364491101711689</v>
+        <v>6.813059503123609</v>
       </c>
       <c r="D12">
         <v>1992</v>
       </c>
       <c r="E12">
-        <v>2.793798186209284</v>
+        <v>3.304848950886519</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -610,13 +610,13 @@
         <v>1991</v>
       </c>
       <c r="C13">
-        <v>6.813462808712534</v>
+        <v>7.117624935786582</v>
       </c>
       <c r="D13">
         <v>1992</v>
       </c>
       <c r="E13">
-        <v>2.829294614456113</v>
+        <v>3.519835154763862</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -627,13 +627,13 @@
         <v>1991</v>
       </c>
       <c r="C14">
-        <v>6.091605135014255</v>
+        <v>6.739021039846627</v>
       </c>
       <c r="D14">
         <v>1992</v>
       </c>
       <c r="E14">
-        <v>2.066726874661873</v>
+        <v>2.457570659067509</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -644,13 +644,13 @@
         <v>1992</v>
       </c>
       <c r="C15">
-        <v>2.139879630803643</v>
+        <v>2.554711158847911</v>
       </c>
       <c r="D15">
         <v>1993</v>
       </c>
       <c r="E15">
-        <v>2.541176785496058</v>
+        <v>2.522894309102997</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -661,13 +661,13 @@
         <v>1992</v>
       </c>
       <c r="C16">
-        <v>2.932796654414149</v>
+        <v>3.15086384235741</v>
       </c>
       <c r="D16">
         <v>1993</v>
       </c>
       <c r="E16">
-        <v>2.584450468619459</v>
+        <v>2.75227989254978</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -678,13 +678,13 @@
         <v>1992</v>
       </c>
       <c r="C17">
-        <v>2.494110716709286</v>
+        <v>2.85229229792674</v>
       </c>
       <c r="D17">
         <v>1993</v>
       </c>
       <c r="E17">
-        <v>2.492787484240577</v>
+        <v>2.505702670097354</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -695,13 +695,13 @@
         <v>1992</v>
       </c>
       <c r="C18">
-        <v>2.064701871240571</v>
+        <v>2.619839412265601</v>
       </c>
       <c r="D18">
         <v>1993</v>
       </c>
       <c r="E18">
-        <v>2.112386427028046</v>
+        <v>1.929582042845213</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -712,13 +712,13 @@
         <v>1993</v>
       </c>
       <c r="C19">
-        <v>1.549317903069802</v>
+        <v>1.118559615191606</v>
       </c>
       <c r="D19">
         <v>1994</v>
       </c>
       <c r="E19">
-        <v>2.659262185946587</v>
+        <v>2.678756322442699</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -729,13 +729,13 @@
         <v>1993</v>
       </c>
       <c r="C20">
-        <v>-1.06363680093724</v>
+        <v>-0.8100302238676749</v>
       </c>
       <c r="D20">
         <v>1994</v>
       </c>
       <c r="E20">
-        <v>2.368493192930488</v>
+        <v>1.758104467524002</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -746,13 +746,13 @@
         <v>1993</v>
       </c>
       <c r="C21">
-        <v>-1.124761626679238</v>
+        <v>-0.8545879197591422</v>
       </c>
       <c r="D21">
         <v>1994</v>
       </c>
       <c r="E21">
-        <v>2.402262657257404</v>
+        <v>1.75964705560796</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -763,13 +763,13 @@
         <v>1993</v>
       </c>
       <c r="C22">
-        <v>-1.000531514043412</v>
+        <v>-0.7919564768266385</v>
       </c>
       <c r="D22">
         <v>1994</v>
       </c>
       <c r="E22">
-        <v>2.575999544954621</v>
+        <v>1.978648203842193</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -780,13 +780,13 @@
         <v>1994</v>
       </c>
       <c r="C23">
-        <v>1.991768926775084</v>
+        <v>1.185415602177886</v>
       </c>
       <c r="D23">
         <v>1995</v>
       </c>
       <c r="E23">
-        <v>2.508787946950286</v>
+        <v>2.518032988030372</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -797,13 +797,13 @@
         <v>1994</v>
       </c>
       <c r="C24">
-        <v>2.479893153134016</v>
+        <v>1.544811553068626</v>
       </c>
       <c r="D24">
         <v>1995</v>
       </c>
       <c r="E24">
-        <v>2.567096653116252</v>
+        <v>2.687259419948318</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -814,13 +814,13 @@
         <v>1994</v>
       </c>
       <c r="C25">
-        <v>2.993503501929951</v>
+        <v>1.879420808589782</v>
       </c>
       <c r="D25">
         <v>1995</v>
       </c>
       <c r="E25">
-        <v>2.851639473444134</v>
+        <v>3.11111544162137</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -831,13 +831,13 @@
         <v>1994</v>
       </c>
       <c r="C26">
-        <v>2.998503002360153</v>
+        <v>1.877689851450803</v>
       </c>
       <c r="D26">
         <v>1995</v>
       </c>
       <c r="E26">
-        <v>2.954478109176528</v>
+        <v>3.188468414048606</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -848,13 +848,13 @@
         <v>1995</v>
       </c>
       <c r="C27">
-        <v>2.923150766105942</v>
+        <v>3.115517787982514</v>
       </c>
       <c r="D27">
         <v>1996</v>
       </c>
       <c r="E27">
-        <v>2.899861342051335</v>
+        <v>2.904029171638833</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -865,13 +865,13 @@
         <v>1995</v>
       </c>
       <c r="C28">
-        <v>2.432437183852798</v>
+        <v>2.745283889750105</v>
       </c>
       <c r="D28">
         <v>1996</v>
       </c>
       <c r="E28">
-        <v>2.872765583543457</v>
+        <v>2.766469441386121</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -882,13 +882,13 @@
         <v>1995</v>
       </c>
       <c r="C29">
-        <v>2.622955649346648</v>
+        <v>2.876778742645825</v>
       </c>
       <c r="D29">
         <v>1996</v>
       </c>
       <c r="E29">
-        <v>2.915653518291639</v>
+        <v>2.870836683523614</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -899,13 +899,13 @@
         <v>1995</v>
       </c>
       <c r="C30">
-        <v>2.310325699082871</v>
+        <v>2.705004599189187</v>
       </c>
       <c r="D30">
         <v>1996</v>
       </c>
       <c r="E30">
-        <v>2.658356052145039</v>
+        <v>2.471779821159181</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -916,13 +916,13 @@
         <v>1996</v>
       </c>
       <c r="C31">
-        <v>1.87529243636666</v>
+        <v>1.409048603179297</v>
       </c>
       <c r="D31">
         <v>1997</v>
       </c>
       <c r="E31">
-        <v>2.745589533300552</v>
+        <v>2.78250907758486</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -933,13 +933,13 @@
         <v>1996</v>
       </c>
       <c r="C32">
-        <v>0.7757377956089551</v>
+        <v>0.6185769761447801</v>
       </c>
       <c r="D32">
         <v>1997</v>
       </c>
       <c r="E32">
-        <v>2.610245619887741</v>
+        <v>2.370470941984903</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -950,13 +950,13 @@
         <v>1996</v>
       </c>
       <c r="C33">
-        <v>1.335102954533496</v>
+        <v>1.015227763727333</v>
       </c>
       <c r="D33">
         <v>1997</v>
       </c>
       <c r="E33">
-        <v>2.984773230892523</v>
+        <v>2.863591445474767</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -967,13 +967,13 @@
         <v>1996</v>
       </c>
       <c r="C34">
-        <v>1.482055350913747</v>
+        <v>1.110374544249249</v>
       </c>
       <c r="D34">
         <v>1997</v>
       </c>
       <c r="E34">
-        <v>2.992107960012036</v>
+        <v>2.958768964947134</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -984,13 +984,13 @@
         <v>1997</v>
       </c>
       <c r="C35">
-        <v>2.445312678728806</v>
+        <v>2.350219877045046</v>
       </c>
       <c r="D35">
         <v>1998</v>
       </c>
       <c r="E35">
-        <v>2.577929127177692</v>
+        <v>2.584104403566045</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1001,13 +1001,13 @@
         <v>1997</v>
       </c>
       <c r="C36">
-        <v>2.220119463330095</v>
+        <v>2.176690369274925</v>
       </c>
       <c r="D36">
         <v>1998</v>
       </c>
       <c r="E36">
-        <v>2.64319810490059</v>
+        <v>2.578250867688547</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1018,13 +1018,13 @@
         <v>1997</v>
       </c>
       <c r="C37">
-        <v>2.342165263381912</v>
+        <v>2.213469490777276</v>
       </c>
       <c r="D37">
         <v>1998</v>
       </c>
       <c r="E37">
-        <v>2.716886837551424</v>
+        <v>2.716715454917296</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1035,13 +1035,13 @@
         <v>1997</v>
       </c>
       <c r="C38">
-        <v>2.439884175301343</v>
+        <v>2.267566233338814</v>
       </c>
       <c r="D38">
         <v>1998</v>
       </c>
       <c r="E38">
-        <v>2.773863658824549</v>
+        <v>2.824054578526636</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1052,13 +1052,13 @@
         <v>1998</v>
       </c>
       <c r="C39">
-        <v>2.381150117272068</v>
+        <v>2.328738048198242</v>
       </c>
       <c r="D39">
         <v>1999</v>
       </c>
       <c r="E39">
-        <v>2.528385444177372</v>
+        <v>2.523912447557897</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1069,13 +1069,13 @@
         <v>1998</v>
       </c>
       <c r="C40">
-        <v>2.772784171603737</v>
+        <v>2.613312245287847</v>
       </c>
       <c r="D40">
         <v>1999</v>
       </c>
       <c r="E40">
-        <v>2.689796511187437</v>
+        <v>2.754147109475591</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1086,13 +1086,13 @@
         <v>1998</v>
       </c>
       <c r="C41">
-        <v>2.84227685047822</v>
+        <v>2.692541136333171</v>
       </c>
       <c r="D41">
         <v>1999</v>
       </c>
       <c r="E41">
-        <v>2.469054913123125</v>
+        <v>2.544244430886566</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1103,13 +1103,13 @@
         <v>1998</v>
       </c>
       <c r="C42">
-        <v>2.833473913903406</v>
+        <v>2.688433258834588</v>
       </c>
       <c r="D42">
         <v>1999</v>
       </c>
       <c r="E42">
-        <v>2.482507310682891</v>
+        <v>2.558605038029849</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1120,13 +1120,13 @@
         <v>1999</v>
       </c>
       <c r="C43">
-        <v>1.655287196880928</v>
+        <v>1.512483228162043</v>
       </c>
       <c r="D43">
         <v>2000</v>
       </c>
       <c r="E43">
-        <v>2.390562571520949</v>
+        <v>2.37132148127388</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1137,13 +1137,13 @@
         <v>1999</v>
       </c>
       <c r="C44">
-        <v>1.481562820846571</v>
+        <v>1.239638987083946</v>
       </c>
       <c r="D44">
         <v>2000</v>
       </c>
       <c r="E44">
-        <v>2.564763317404561</v>
+        <v>2.493426994223724</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1154,13 +1154,13 @@
         <v>1999</v>
       </c>
       <c r="C45">
-        <v>0.8861546371220719</v>
+        <v>0.7880640341998202</v>
       </c>
       <c r="D45">
         <v>2000</v>
       </c>
       <c r="E45">
-        <v>2.142429114246314</v>
+        <v>1.953531852073764</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1171,13 +1171,13 @@
         <v>1999</v>
       </c>
       <c r="C46">
-        <v>1.221733233617339</v>
+        <v>1.014079695989589</v>
       </c>
       <c r="D46">
         <v>2000</v>
       </c>
       <c r="E46">
-        <v>2.282946612411263</v>
+        <v>2.1961756525541</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1188,13 +1188,13 @@
         <v>2000</v>
       </c>
       <c r="C47">
-        <v>2.448320502468238</v>
+        <v>2.442136342330303</v>
       </c>
       <c r="D47">
         <v>2001</v>
       </c>
       <c r="E47">
-        <v>2.309224227556794</v>
+        <v>2.3178297977275</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1205,13 +1205,13 @@
         <v>2000</v>
       </c>
       <c r="C48">
-        <v>2.564024492763806</v>
+        <v>2.513051972228775</v>
       </c>
       <c r="D48">
         <v>2001</v>
       </c>
       <c r="E48">
-        <v>2.473062944816595</v>
+        <v>2.489529953686964</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1222,13 +1222,13 @@
         <v>2000</v>
       </c>
       <c r="C49">
-        <v>3.153099622684863</v>
+        <v>2.943135131119434</v>
       </c>
       <c r="D49">
         <v>2001</v>
       </c>
       <c r="E49">
-        <v>2.621515653474216</v>
+        <v>2.842304607894208</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -1239,13 +1239,13 @@
         <v>2000</v>
       </c>
       <c r="C50">
-        <v>3.212706544592092</v>
+        <v>3.013853578092252</v>
       </c>
       <c r="D50">
         <v>2001</v>
       </c>
       <c r="E50">
-        <v>2.498927718860466</v>
+        <v>2.721358666668894</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -1256,13 +1256,13 @@
         <v>2001</v>
       </c>
       <c r="C51">
-        <v>1.915232257141031</v>
+        <v>2.032076839436447</v>
       </c>
       <c r="D51">
         <v>2002</v>
       </c>
       <c r="E51">
-        <v>2.237269708962941</v>
+        <v>2.215402265146471</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -1273,13 +1273,13 @@
         <v>2001</v>
       </c>
       <c r="C52">
-        <v>1.759737107832926</v>
+        <v>1.921237443390145</v>
       </c>
       <c r="D52">
         <v>2002</v>
       </c>
       <c r="E52">
-        <v>2.1823787252363</v>
+        <v>2.12762431017075</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -1290,13 +1290,13 @@
         <v>2001</v>
       </c>
       <c r="C53">
-        <v>1.200212790305688</v>
+        <v>1.482681014868481</v>
       </c>
       <c r="D53">
         <v>2002</v>
       </c>
       <c r="E53">
-        <v>1.945361731599915</v>
+        <v>1.737439737565083</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -1307,13 +1307,13 @@
         <v>2001</v>
       </c>
       <c r="C54">
-        <v>0.8718408608820116</v>
+        <v>1.331295149770684</v>
       </c>
       <c r="D54">
         <v>2002</v>
       </c>
       <c r="E54">
-        <v>1.451589658605279</v>
+        <v>1.104792173470215</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -1324,13 +1324,13 @@
         <v>2002</v>
       </c>
       <c r="C55">
-        <v>0.7448884326621386</v>
+        <v>0.3241883520552991</v>
       </c>
       <c r="D55">
         <v>2003</v>
       </c>
       <c r="E55">
-        <v>1.887617486540871</v>
+        <v>1.834778707618989</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -1341,13 +1341,13 @@
         <v>2002</v>
       </c>
       <c r="C56">
-        <v>0.5027243209395182</v>
+        <v>0.1585342120028033</v>
       </c>
       <c r="D56">
         <v>2003</v>
       </c>
       <c r="E56">
-        <v>1.723557921614716</v>
+        <v>1.634581066715657</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -1358,13 +1358,13 @@
         <v>2002</v>
       </c>
       <c r="C57">
-        <v>0.4808578657098828</v>
+        <v>0.1457424138482377</v>
       </c>
       <c r="D57">
         <v>2003</v>
       </c>
       <c r="E57">
-        <v>1.723271795704595</v>
+        <v>1.635800231387408</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -1375,13 +1375,13 @@
         <v>2002</v>
       </c>
       <c r="C58">
-        <v>0.3027105478702108</v>
+        <v>0.04589006555719699</v>
       </c>
       <c r="D58">
         <v>2003</v>
       </c>
       <c r="E58">
-        <v>1.495147488490889</v>
+        <v>1.367746832546346</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -1392,13 +1392,13 @@
         <v>2003</v>
       </c>
       <c r="C59">
-        <v>1.101570631429216</v>
+        <v>0.9081944905346084</v>
       </c>
       <c r="D59">
         <v>2004</v>
       </c>
       <c r="E59">
-        <v>1.485795576382354</v>
+        <v>1.489695613175468</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -1409,13 +1409,13 @@
         <v>2003</v>
       </c>
       <c r="C60">
-        <v>0.5465690596114792</v>
+        <v>0.4972865286980932</v>
       </c>
       <c r="D60">
         <v>2004</v>
       </c>
       <c r="E60">
-        <v>1.336255717893819</v>
+        <v>1.245013078987922</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -1426,13 +1426,13 @@
         <v>2003</v>
       </c>
       <c r="C61">
-        <v>0.1226244738887772</v>
+        <v>0.1151489570930586</v>
       </c>
       <c r="D61">
         <v>2004</v>
       </c>
       <c r="E61">
-        <v>1.273847785608018</v>
+        <v>1.090059692168466</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -1443,13 +1443,13 @@
         <v>2003</v>
       </c>
       <c r="C62">
-        <v>-0.06338401458176879</v>
+        <v>0.009546395482029624</v>
       </c>
       <c r="D62">
         <v>2004</v>
       </c>
       <c r="E62">
-        <v>1.186949455574493</v>
+        <v>0.9083591402091473</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1460,13 +1460,13 @@
         <v>2004</v>
       </c>
       <c r="C63">
-        <v>0.995052798292595</v>
+        <v>0.6887973345672149</v>
       </c>
       <c r="D63">
         <v>2005</v>
       </c>
       <c r="E63">
-        <v>1.21940334738424</v>
+        <v>1.222913308116591</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -1477,13 +1477,13 @@
         <v>2004</v>
       </c>
       <c r="C64">
-        <v>1.097102853016874</v>
+        <v>0.802283903038159</v>
       </c>
       <c r="D64">
         <v>2005</v>
       </c>
       <c r="E64">
-        <v>1.078165363345507</v>
+        <v>1.117253368207849</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -1494,13 +1494,13 @@
         <v>2004</v>
       </c>
       <c r="C65">
-        <v>1.34901080838441</v>
+        <v>0.9596024184525875</v>
       </c>
       <c r="D65">
         <v>2005</v>
       </c>
       <c r="E65">
-        <v>1.284205480024792</v>
+        <v>1.368717501935546</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -1511,13 +1511,13 @@
         <v>2004</v>
       </c>
       <c r="C66">
-        <v>1.191718234579842</v>
+        <v>0.8709390141433015</v>
       </c>
       <c r="D66">
         <v>2005</v>
       </c>
       <c r="E66">
-        <v>1.166653268907458</v>
+        <v>1.177606443599988</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -1528,13 +1528,13 @@
         <v>2005</v>
       </c>
       <c r="C67">
-        <v>0.5395053573269193</v>
+        <v>0.4410697320952561</v>
       </c>
       <c r="D67">
         <v>2006</v>
       </c>
       <c r="E67">
-        <v>1.159652672534639</v>
+        <v>1.116389604953394</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -1545,13 +1545,13 @@
         <v>2005</v>
       </c>
       <c r="C68">
-        <v>1.572397351130328</v>
+        <v>1.124230726200648</v>
       </c>
       <c r="D68">
         <v>2006</v>
       </c>
       <c r="E68">
-        <v>1.582707465349764</v>
+        <v>1.748979051430455</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -1562,13 +1562,13 @@
         <v>2005</v>
       </c>
       <c r="C69">
-        <v>0.9830139229099144</v>
+        <v>0.7158678547656061</v>
       </c>
       <c r="D69">
         <v>2006</v>
       </c>
       <c r="E69">
-        <v>1.422422035968962</v>
+        <v>1.422680727308201</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -1579,13 +1579,13 @@
         <v>2005</v>
       </c>
       <c r="C70">
-        <v>1.10662279082161</v>
+        <v>0.7652063367885598</v>
       </c>
       <c r="D70">
         <v>2006</v>
       </c>
       <c r="E70">
-        <v>1.607604296724396</v>
+        <v>1.680477107215861</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -1596,13 +1596,13 @@
         <v>2006</v>
       </c>
       <c r="C71">
-        <v>1.321777562372928</v>
+        <v>1.339452664142549</v>
       </c>
       <c r="D71">
         <v>2007</v>
       </c>
       <c r="E71">
-        <v>1.492576005069335</v>
+        <v>1.48735396440367</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -1613,13 +1613,13 @@
         <v>2006</v>
       </c>
       <c r="C72">
-        <v>1.322125352849413</v>
+        <v>1.380216232465781</v>
       </c>
       <c r="D72">
         <v>2007</v>
       </c>
       <c r="E72">
-        <v>1.429193111889671</v>
+        <v>1.427113753179343</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -1630,13 +1630,13 @@
         <v>2006</v>
       </c>
       <c r="C73">
-        <v>2.206144542976007</v>
+        <v>2.027923310113966</v>
       </c>
       <c r="D73">
         <v>2007</v>
       </c>
       <c r="E73">
-        <v>1.674846040945321</v>
+        <v>1.907807021245667</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -1647,13 +1647,13 @@
         <v>2006</v>
       </c>
       <c r="C74">
-        <v>2.581733062021807</v>
+        <v>2.267579219134386</v>
       </c>
       <c r="D74">
         <v>2007</v>
       </c>
       <c r="E74">
-        <v>1.863208987134324</v>
+        <v>2.225111592343887</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -1664,13 +1664,13 @@
         <v>2007</v>
       </c>
       <c r="C75">
-        <v>2.416268882941885</v>
+        <v>2.933346151407901</v>
       </c>
       <c r="D75">
         <v>2008</v>
       </c>
       <c r="E75">
-        <v>1.54018541130112</v>
+        <v>1.57414742455555</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -1681,13 +1681,13 @@
         <v>2007</v>
       </c>
       <c r="C76">
-        <v>2.644331987985127</v>
+        <v>3.178515672370708</v>
       </c>
       <c r="D76">
         <v>2008</v>
       </c>
       <c r="E76">
-        <v>1.618758147029653</v>
+        <v>1.673213377067717</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -1698,13 +1698,13 @@
         <v>2007</v>
       </c>
       <c r="C77">
-        <v>2.463900898486049</v>
+        <v>3.06702341292715</v>
       </c>
       <c r="D77">
         <v>2008</v>
       </c>
       <c r="E77">
-        <v>1.439039865002134</v>
+        <v>1.45553627157049</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -1715,13 +1715,13 @@
         <v>2007</v>
       </c>
       <c r="C78">
-        <v>2.635105211127575</v>
+        <v>3.146753122914103</v>
       </c>
       <c r="D78">
         <v>2008</v>
       </c>
       <c r="E78">
-        <v>1.722015618408701</v>
+        <v>1.799793194919874</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -1732,13 +1732,13 @@
         <v>2008</v>
       </c>
       <c r="C79">
-        <v>1.585034188191714</v>
+        <v>1.622207119956309</v>
       </c>
       <c r="D79">
         <v>2009</v>
       </c>
       <c r="E79">
-        <v>1.585674960490113</v>
+        <v>1.588155534585312</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -1749,13 +1749,13 @@
         <v>2008</v>
       </c>
       <c r="C80">
-        <v>2.914742198403797</v>
+        <v>2.572874367914246</v>
       </c>
       <c r="D80">
         <v>2009</v>
       </c>
       <c r="E80">
-        <v>1.949882598369124</v>
+        <v>2.26445559922297</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -1766,13 +1766,13 @@
         <v>2008</v>
       </c>
       <c r="C81">
-        <v>1.849664159209219</v>
+        <v>1.903278353311832</v>
       </c>
       <c r="D81">
         <v>2009</v>
       </c>
       <c r="E81">
-        <v>1.258622825501221</v>
+        <v>1.247647602479818</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -1783,13 +1783,13 @@
         <v>2008</v>
       </c>
       <c r="C82">
-        <v>1.485199759936107</v>
+        <v>1.769033835366818</v>
       </c>
       <c r="D82">
         <v>2009</v>
       </c>
       <c r="E82">
-        <v>0.443605991657714</v>
+        <v>0.2856860139923256</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -1800,13 +1800,13 @@
         <v>2009</v>
       </c>
       <c r="C83">
-        <v>-2.925220177089027</v>
+        <v>-3.033054849958983</v>
       </c>
       <c r="D83">
         <v>2010</v>
       </c>
       <c r="E83">
-        <v>0.1087431448965059</v>
+        <v>-0.3465353949972272</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -1817,13 +1817,13 @@
         <v>2009</v>
       </c>
       <c r="C84">
-        <v>-10.38912473755519</v>
+        <v>-7.574105122480734</v>
       </c>
       <c r="D84">
         <v>2010</v>
       </c>
       <c r="E84">
-        <v>-13.02588630704915</v>
+        <v>-13.03389973386627</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -1834,13 +1834,13 @@
         <v>2009</v>
       </c>
       <c r="C85">
-        <v>-5.493279456187173</v>
+        <v>-5.069843058161205</v>
       </c>
       <c r="D85">
         <v>2010</v>
       </c>
       <c r="E85">
-        <v>0.3099897690161502</v>
+        <v>-0.7198438264588214</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -1851,13 +1851,13 @@
         <v>2009</v>
       </c>
       <c r="C86">
-        <v>-4.838386464989386</v>
+        <v>-4.774715709990263</v>
       </c>
       <c r="D86">
         <v>2010</v>
       </c>
       <c r="E86">
-        <v>1.556350517939564</v>
+        <v>0.754926127539246</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -1868,13 +1868,13 @@
         <v>2010</v>
       </c>
       <c r="C87">
-        <v>0.9288791585305711</v>
+        <v>0.1238565151386428</v>
       </c>
       <c r="D87">
         <v>2011</v>
       </c>
       <c r="E87">
-        <v>0.8822063211653797</v>
+        <v>0.8493838412731991</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -1885,13 +1885,13 @@
         <v>2010</v>
       </c>
       <c r="C88">
-        <v>1.071809041675276</v>
+        <v>0.3088110144677358</v>
       </c>
       <c r="D88">
         <v>2011</v>
       </c>
       <c r="E88">
-        <v>0.8342879232527967</v>
+        <v>0.8151717706756934</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -1902,13 +1902,13 @@
         <v>2010</v>
       </c>
       <c r="C89">
-        <v>3.577564492651675</v>
+        <v>1.917805774349324</v>
       </c>
       <c r="D89">
         <v>2011</v>
       </c>
       <c r="E89">
-        <v>2.731583858664188</v>
+        <v>3.443995540297906</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -1919,13 +1919,13 @@
         <v>2010</v>
       </c>
       <c r="C90">
-        <v>3.522877896197807</v>
+        <v>1.95493704440024</v>
       </c>
       <c r="D90">
         <v>2011</v>
       </c>
       <c r="E90">
-        <v>2.252953350090348</v>
+        <v>2.928378677701393</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -1936,13 +1936,13 @@
         <v>2011</v>
       </c>
       <c r="C91">
-        <v>2.021953894754303</v>
+        <v>2.680358229503677</v>
       </c>
       <c r="D91">
         <v>2012</v>
       </c>
       <c r="E91">
-        <v>1.306806877555622</v>
+        <v>1.31488778588067</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -1953,13 +1953,13 @@
         <v>2011</v>
       </c>
       <c r="C92">
-        <v>3.720096369677184</v>
+        <v>3.845022163334466</v>
       </c>
       <c r="D92">
         <v>2012</v>
       </c>
       <c r="E92">
-        <v>1.686787594525496</v>
+        <v>2.160819775353762</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -1970,13 +1970,13 @@
         <v>2011</v>
       </c>
       <c r="C93">
-        <v>2.851982935378228</v>
+        <v>3.313793126962161</v>
       </c>
       <c r="D93">
         <v>2012</v>
       </c>
       <c r="E93">
-        <v>1.136030550102829</v>
+        <v>1.288822403171053</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -1987,13 +1987,13 @@
         <v>2011</v>
       </c>
       <c r="C94">
-        <v>3.172593145981373</v>
+        <v>3.478075069442799</v>
       </c>
       <c r="D94">
         <v>2012</v>
       </c>
       <c r="E94">
-        <v>1.460171959067247</v>
+        <v>1.768431385360159</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2004,13 +2004,13 @@
         <v>2012</v>
       </c>
       <c r="C95">
-        <v>0.613364121638349</v>
+        <v>0.9217103888865319</v>
       </c>
       <c r="D95">
         <v>2013</v>
       </c>
       <c r="E95">
-        <v>1.081133053453542</v>
+        <v>0.9938722670140177</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2021,13 +2021,13 @@
         <v>2012</v>
       </c>
       <c r="C96">
-        <v>1.276650241283095</v>
+        <v>1.393976211508785</v>
       </c>
       <c r="D96">
         <v>2013</v>
       </c>
       <c r="E96">
-        <v>1.19633550657503</v>
+        <v>1.299377455687734</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2038,13 +2038,13 @@
         <v>2012</v>
       </c>
       <c r="C97">
-        <v>1.086563863520862</v>
+        <v>1.238170019228857</v>
       </c>
       <c r="D97">
         <v>2013</v>
       </c>
       <c r="E97">
-        <v>1.06457164149647</v>
+        <v>1.11979888658611</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2055,13 +2055,13 @@
         <v>2012</v>
       </c>
       <c r="C98">
-        <v>1.075749333634834</v>
+        <v>1.232342134690434</v>
       </c>
       <c r="D98">
         <v>2013</v>
       </c>
       <c r="E98">
-        <v>1.106002658655192</v>
+        <v>1.134779475590464</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2072,13 +2072,13 @@
         <v>2013</v>
       </c>
       <c r="C99">
-        <v>-0.1408840671955125</v>
+        <v>-0.1472450336531095</v>
       </c>
       <c r="D99">
         <v>2014</v>
       </c>
       <c r="E99">
-        <v>0.9790721284826276</v>
+        <v>0.8246012816082837</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2089,13 +2089,13 @@
         <v>2013</v>
       </c>
       <c r="C100">
-        <v>-0.03137857138646449</v>
+        <v>-0.1149334425204152</v>
       </c>
       <c r="D100">
         <v>2014</v>
       </c>
       <c r="E100">
-        <v>0.8494291553396094</v>
+        <v>0.7902221915852214</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2106,13 +2106,13 @@
         <v>2013</v>
       </c>
       <c r="C101">
-        <v>0.6094282583182231</v>
+        <v>0.2948133057710134</v>
       </c>
       <c r="D101">
         <v>2014</v>
       </c>
       <c r="E101">
-        <v>1.440500538214629</v>
+        <v>1.54547817321451</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2123,13 +2123,13 @@
         <v>2013</v>
       </c>
       <c r="C102">
-        <v>0.5135943516859198</v>
+        <v>0.2542811494408159</v>
       </c>
       <c r="D102">
         <v>2014</v>
       </c>
       <c r="E102">
-        <v>1.304915753449687</v>
+        <v>1.353526127153426</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2140,13 +2140,13 @@
         <v>2014</v>
       </c>
       <c r="C103">
-        <v>1.408749482567595</v>
+        <v>1.463973503188298</v>
       </c>
       <c r="D103">
         <v>2015</v>
       </c>
       <c r="E103">
-        <v>1.146596633558361</v>
+        <v>1.167197888844651</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2157,13 +2157,13 @@
         <v>2014</v>
       </c>
       <c r="C104">
-        <v>2.183348446776856</v>
+        <v>1.996585218152536</v>
       </c>
       <c r="D104">
         <v>2015</v>
       </c>
       <c r="E104">
-        <v>1.476241482808471</v>
+        <v>1.687142382558493</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2174,13 +2174,13 @@
         <v>2014</v>
       </c>
       <c r="C105">
-        <v>1.308305381840369</v>
+        <v>1.407969529092701</v>
       </c>
       <c r="D105">
         <v>2015</v>
       </c>
       <c r="E105">
-        <v>0.726330085526028</v>
+        <v>0.6651865970641602</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2191,13 +2191,13 @@
         <v>2014</v>
       </c>
       <c r="C106">
-        <v>1.463603839062211</v>
+        <v>1.519778766382096</v>
       </c>
       <c r="D106">
         <v>2015</v>
       </c>
       <c r="E106">
-        <v>0.7345358670387547</v>
+        <v>0.7212678493511149</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2208,13 +2208,13 @@
         <v>2015</v>
       </c>
       <c r="C107">
-        <v>1.555506802213324</v>
+        <v>1.542419252401972</v>
       </c>
       <c r="D107">
         <v>2016</v>
       </c>
       <c r="E107">
-        <v>1.247251478420663</v>
+        <v>1.324249445095793</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2225,13 +2225,13 @@
         <v>2015</v>
       </c>
       <c r="C108">
-        <v>1.291204709804039</v>
+        <v>1.344646667329186</v>
       </c>
       <c r="D108">
         <v>2016</v>
       </c>
       <c r="E108">
-        <v>1.334784545494694</v>
+        <v>1.307762937264378</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -2242,13 +2242,13 @@
         <v>2015</v>
       </c>
       <c r="C109">
-        <v>1.503879794234519</v>
+        <v>1.48645553029727</v>
       </c>
       <c r="D109">
         <v>2016</v>
       </c>
       <c r="E109">
-        <v>1.427154289074717</v>
+        <v>1.469436239320632</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -2259,13 +2259,13 @@
         <v>2015</v>
       </c>
       <c r="C110">
-        <v>1.460561192715071</v>
+        <v>1.469441753880329</v>
       </c>
       <c r="D110">
         <v>2016</v>
       </c>
       <c r="E110">
-        <v>1.316306168565684</v>
+        <v>1.350400980499855</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -2276,13 +2276,13 @@
         <v>2016</v>
       </c>
       <c r="C111">
-        <v>1.211140135558786</v>
+        <v>1.236276759078736</v>
       </c>
       <c r="D111">
         <v>2017</v>
       </c>
       <c r="E111">
-        <v>1.281269266985707</v>
+        <v>1.271004750464444</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -2293,13 +2293,13 @@
         <v>2016</v>
       </c>
       <c r="C112">
-        <v>1.789277221144991</v>
+        <v>1.634452213710591</v>
       </c>
       <c r="D112">
         <v>2017</v>
       </c>
       <c r="E112">
-        <v>1.517762585655458</v>
+        <v>1.652249888306234</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -2310,13 +2310,13 @@
         <v>2016</v>
       </c>
       <c r="C113">
-        <v>1.831409032854858</v>
+        <v>1.686579556996737</v>
       </c>
       <c r="D113">
         <v>2017</v>
       </c>
       <c r="E113">
-        <v>1.455762792597137</v>
+        <v>1.570693254827016</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -2327,13 +2327,13 @@
         <v>2016</v>
       </c>
       <c r="C114">
-        <v>1.71486702353103</v>
+        <v>1.638203081492495</v>
       </c>
       <c r="D114">
         <v>2017</v>
       </c>
       <c r="E114">
-        <v>1.271337706785514</v>
+        <v>1.323745783269614</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -2344,13 +2344,13 @@
         <v>2017</v>
       </c>
       <c r="C115">
-        <v>1.469790059051301</v>
+        <v>1.527431120750089</v>
       </c>
       <c r="D115">
         <v>2018</v>
       </c>
       <c r="E115">
-        <v>1.488538737086698</v>
+        <v>1.49928063535818</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -2361,13 +2361,13 @@
         <v>2017</v>
       </c>
       <c r="C116">
-        <v>1.816297695264346</v>
+        <v>1.77159272734837</v>
       </c>
       <c r="D116">
         <v>2018</v>
       </c>
       <c r="E116">
-        <v>1.651160881705249</v>
+        <v>1.740794503770515</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -2378,13 +2378,13 @@
         <v>2017</v>
       </c>
       <c r="C117">
-        <v>2.141958087655205</v>
+        <v>2.038067475029792</v>
       </c>
       <c r="D117">
         <v>2018</v>
       </c>
       <c r="E117">
-        <v>1.746314025496809</v>
+        <v>1.912749849341111</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -2395,13 +2395,13 @@
         <v>2017</v>
       </c>
       <c r="C118">
-        <v>2.54573700790961</v>
+        <v>2.268697431234346</v>
       </c>
       <c r="D118">
         <v>2018</v>
       </c>
       <c r="E118">
-        <v>2.15356679889549</v>
+        <v>2.455413743911294</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -2412,13 +2412,13 @@
         <v>2018</v>
       </c>
       <c r="C119">
-        <v>2.145682023461037</v>
+        <v>2.422935260712222</v>
       </c>
       <c r="D119">
         <v>2019</v>
       </c>
       <c r="E119">
-        <v>1.655594237651448</v>
+        <v>1.697347461130616</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -2429,13 +2429,13 @@
         <v>2018</v>
       </c>
       <c r="C120">
-        <v>1.814946630842762</v>
+        <v>2.197572811344384</v>
       </c>
       <c r="D120">
         <v>2019</v>
       </c>
       <c r="E120">
-        <v>1.477668145972499</v>
+        <v>1.445892187720954</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -2446,13 +2446,13 @@
         <v>2018</v>
       </c>
       <c r="C121">
-        <v>1.833917811424923</v>
+        <v>2.135738886492722</v>
       </c>
       <c r="D121">
         <v>2019</v>
       </c>
       <c r="E121">
-        <v>1.482713323460105</v>
+        <v>1.5239727342093</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -2463,13 +2463,13 @@
         <v>2018</v>
       </c>
       <c r="C122">
-        <v>1.467563812511452</v>
+        <v>1.984425467899631</v>
       </c>
       <c r="D122">
         <v>2019</v>
       </c>
       <c r="E122">
-        <v>0.7694605565311097</v>
+        <v>0.6687400825358569</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -2480,13 +2480,13 @@
         <v>2019</v>
       </c>
       <c r="C123">
-        <v>0.6144150995606168</v>
+        <v>0.5223670426305116</v>
       </c>
       <c r="D123">
         <v>2020</v>
       </c>
       <c r="E123">
-        <v>1.17005815250153</v>
+        <v>1.124157344091392</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -2497,13 +2497,13 @@
         <v>2019</v>
       </c>
       <c r="C124">
-        <v>0.9755302942728195</v>
+        <v>0.7727659837340584</v>
       </c>
       <c r="D124">
         <v>2020</v>
       </c>
       <c r="E124">
-        <v>1.308311503751969</v>
+        <v>1.351596145190048</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -2514,13 +2514,13 @@
         <v>2019</v>
       </c>
       <c r="C125">
-        <v>0.6763657625222574</v>
+        <v>0.6517999567158927</v>
       </c>
       <c r="D125">
         <v>2020</v>
       </c>
       <c r="E125">
-        <v>0.9449343475431693</v>
+        <v>0.8401743749544943</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -2531,13 +2531,13 @@
         <v>2019</v>
       </c>
       <c r="C126">
-        <v>0.573813583266336</v>
+        <v>0.6066448776129052</v>
       </c>
       <c r="D126">
         <v>2020</v>
       </c>
       <c r="E126">
-        <v>0.7682770484317203</v>
+        <v>0.6230021429014077</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -2548,13 +2548,13 @@
         <v>2020</v>
       </c>
       <c r="C127">
-        <v>0.6190211190723716</v>
+        <v>0.4962430761093373</v>
       </c>
       <c r="D127">
         <v>2021</v>
       </c>
       <c r="E127">
-        <v>1.084641646955609</v>
+        <v>1.043354653102613</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -2565,13 +2565,13 @@
         <v>2020</v>
       </c>
       <c r="C128">
-        <v>-2.88765784846251</v>
+        <v>-1.9842724512803</v>
       </c>
       <c r="D128">
         <v>2021</v>
       </c>
       <c r="E128">
-        <v>-0.08203399280549695</v>
+        <v>-1.032433245924502</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -2582,13 +2582,13 @@
         <v>2020</v>
       </c>
       <c r="C129">
-        <v>-13.62257802198732</v>
+        <v>-7.8093630455359</v>
       </c>
       <c r="D129">
         <v>2021</v>
       </c>
       <c r="E129">
-        <v>-18.77753932536402</v>
+        <v>-21.14352601530715</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -2599,13 +2599,13 @@
         <v>2020</v>
       </c>
       <c r="C130">
-        <v>-6.332038390823524</v>
+        <v>-4.243076347305386</v>
       </c>
       <c r="D130">
         <v>2021</v>
       </c>
       <c r="E130">
-        <v>0.4447691747926807</v>
+        <v>-2.163103471150829</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -2616,13 +2616,13 @@
         <v>2021</v>
       </c>
       <c r="C131">
-        <v>1.393690305272322</v>
+        <v>0.4059191425292541</v>
       </c>
       <c r="D131">
         <v>2022</v>
       </c>
       <c r="E131">
-        <v>0.9993666180888372</v>
+        <v>0.7867329463830508</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -2633,13 +2633,13 @@
         <v>2021</v>
       </c>
       <c r="C132">
-        <v>1.10051964147142</v>
+        <v>0.3025215973878836</v>
       </c>
       <c r="D132">
         <v>2022</v>
       </c>
       <c r="E132">
-        <v>1.367775147972683</v>
+        <v>0.9864098545071087</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -2650,13 +2650,13 @@
         <v>2021</v>
       </c>
       <c r="C133">
-        <v>1.596719456215823</v>
+        <v>0.8291455346771004</v>
       </c>
       <c r="D133">
         <v>2022</v>
       </c>
       <c r="E133">
-        <v>1.64009848016855</v>
+        <v>1.257977338548244</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -2667,13 +2667,13 @@
         <v>2021</v>
       </c>
       <c r="C134">
-        <v>2.50078376310503</v>
+        <v>1.438499295329754</v>
       </c>
       <c r="D134">
         <v>2022</v>
       </c>
       <c r="E134">
-        <v>2.02294041918627</v>
+        <v>1.882119284761474</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -2684,13 +2684,13 @@
         <v>2022</v>
       </c>
       <c r="C135">
-        <v>2.171220559958353</v>
+        <v>2.203277847445606</v>
       </c>
       <c r="D135">
         <v>2023</v>
       </c>
       <c r="E135">
-        <v>1.622870635453788</v>
+        <v>1.62896155637855</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -2701,13 +2701,13 @@
         <v>2022</v>
       </c>
       <c r="C136">
-        <v>2.093637744778643</v>
+        <v>2.147433528392373</v>
       </c>
       <c r="D136">
         <v>2023</v>
       </c>
       <c r="E136">
-        <v>1.595534183633029</v>
+        <v>1.587614009576455</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -2718,13 +2718,13 @@
         <v>2022</v>
       </c>
       <c r="C137">
-        <v>2.047503765332293</v>
+        <v>1.911237738166016</v>
       </c>
       <c r="D137">
         <v>2023</v>
       </c>
       <c r="E137">
-        <v>1.450008929318436</v>
+        <v>1.520831000138645</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -2735,13 +2735,13 @@
         <v>2022</v>
       </c>
       <c r="C138">
-        <v>2.036925251458377</v>
+        <v>1.906593537051537</v>
       </c>
       <c r="D138">
         <v>2023</v>
       </c>
       <c r="E138">
-        <v>1.390457834055581</v>
+        <v>1.473394465200051</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -2752,13 +2752,13 @@
         <v>2023</v>
       </c>
       <c r="C139">
-        <v>1.094238427434013</v>
+        <v>0.919090152418689</v>
       </c>
       <c r="D139">
         <v>2024</v>
       </c>
       <c r="E139">
-        <v>1.321355059964002</v>
+        <v>1.394789902053328</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -2769,13 +2769,13 @@
         <v>2023</v>
       </c>
       <c r="C140">
-        <v>0.2704008632326893</v>
+        <v>0.2531386145756764</v>
       </c>
       <c r="D140">
         <v>2024</v>
       </c>
       <c r="E140">
-        <v>1.264914507337878</v>
+        <v>1.171952640618934</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -2786,13 +2786,13 @@
         <v>2023</v>
       </c>
       <c r="C141">
-        <v>0.0973275205688573</v>
+        <v>0.1198015708446576</v>
       </c>
       <c r="D141">
         <v>2024</v>
       </c>
       <c r="E141">
-        <v>1.155931536963561</v>
+        <v>1.058028897045715</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -2803,13 +2803,13 @@
         <v>2023</v>
       </c>
       <c r="C142">
-        <v>0.006976824310989116</v>
+        <v>0.08348019664223827</v>
       </c>
       <c r="D142">
         <v>2024</v>
       </c>
       <c r="E142">
-        <v>1.013493932837783</v>
+        <v>0.8702074629614476</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -2820,13 +2820,13 @@
         <v>2024</v>
       </c>
       <c r="C143">
-        <v>0.777040352969971</v>
+        <v>0.3909489727764726</v>
       </c>
       <c r="D143">
         <v>2025</v>
       </c>
       <c r="E143">
-        <v>1.068175595509357</v>
+        <v>1.140167344033904</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -2837,13 +2837,13 @@
         <v>2024</v>
       </c>
       <c r="C144">
-        <v>0.4339626597083202</v>
+        <v>0.1066070725092017</v>
       </c>
       <c r="D144">
         <v>2025</v>
       </c>
       <c r="E144">
-        <v>1.098925859512323</v>
+        <v>1.106834879074126</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -2854,13 +2854,13 @@
         <v>2024</v>
       </c>
       <c r="C145">
-        <v>0.233555755601067</v>
+        <v>-0.03158439189187012</v>
       </c>
       <c r="D145">
         <v>2025</v>
       </c>
       <c r="E145">
-        <v>1.030082119929365</v>
+        <v>0.9945955736899936</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -2871,13 +2871,13 @@
         <v>2024</v>
       </c>
       <c r="C146">
-        <v>-0.03686848375263896</v>
+        <v>-0.214505326882275</v>
       </c>
       <c r="D146">
         <v>2025</v>
       </c>
       <c r="E146">
-        <v>0.9237465935730382</v>
+        <v>0.8092352694139215</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -2888,13 +2888,13 @@
         <v>2025</v>
       </c>
       <c r="C147">
-        <v>0.6896020733472286</v>
+        <v>0.3428531358511622</v>
       </c>
       <c r="D147">
         <v>2026</v>
       </c>
       <c r="E147">
-        <v>1.025816580054362</v>
+        <v>1.074046090027436</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -2905,13 +2905,13 @@
         <v>2025</v>
       </c>
       <c r="C148">
-        <v>0.6712205726778775</v>
+        <v>0.3236660530042679</v>
       </c>
       <c r="D148">
         <v>2026</v>
       </c>
       <c r="E148">
-        <v>1.081926859399074</v>
+        <v>1.117873748384368</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -2922,13 +2922,13 @@
         <v>2025</v>
       </c>
       <c r="C149">
-        <v>0.4755036192378936</v>
+        <v>0.2399224419764145</v>
       </c>
       <c r="D149">
         <v>2026</v>
       </c>
       <c r="E149">
-        <v>0.9694102959983519</v>
+        <v>0.9214009400284162</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -2939,13 +2939,13 @@
         <v>2025</v>
       </c>
       <c r="C150">
-        <v>0.3398512689293476</v>
+        <v>0.1651547428133782</v>
       </c>
       <c r="D150">
         <v>2026</v>
       </c>
       <c r="E150">
-        <v>0.8571438361188566</v>
+        <v>0.7536567386490001</v>
       </c>
     </row>
   </sheetData>
